--- a/writeups/projects/honors thesis/notes/Exp.1_Master.xlsx
+++ b/writeups/projects/honors thesis/notes/Exp.1_Master.xlsx
@@ -1,31 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel\Documents\SI.SP\writeups\projects\honors thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel\Documents\SI.SP\writeups\projects\honors thesis\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA35DBB-8586-4963-9A07-9591DC8EC319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2217C92B-2CFF-4CE5-915C-FF8DF29DFE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="9" xr2:uid="{6F4FE53E-24C5-4985-9E6F-6A265A63BA90}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="6" xr2:uid="{6F4FE53E-24C5-4985-9E6F-6A265A63BA90}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="7" r:id="rId1"/>
     <sheet name="Exposure Phase" sheetId="1" r:id="rId2"/>
     <sheet name="Exp.1" sheetId="8" r:id="rId3"/>
     <sheet name="Critical Trials" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="10" r:id="rId5"/>
-    <sheet name="Filler Trials" sheetId="2" r:id="rId6"/>
-    <sheet name="Test Phase" sheetId="3" r:id="rId7"/>
-    <sheet name="Design Diagram" sheetId="5" r:id="rId8"/>
-    <sheet name="Design Diagram 2" sheetId="6" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId10"/>
+    <sheet name="Filler Trials" sheetId="2" r:id="rId5"/>
+    <sheet name="Test Phase" sheetId="3" r:id="rId6"/>
+    <sheet name="Design Diagram" sheetId="5" r:id="rId7"/>
+    <sheet name="Design Diagram 2" sheetId="6" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="255">
   <si>
     <t>Critical Items</t>
   </si>
@@ -128,9 +127,6 @@
     <t xml:space="preserve">Versions of  experiment </t>
   </si>
   <si>
-    <t>What qualities are assigned to the two talkers in the critical trials</t>
-  </si>
-  <si>
     <t>which Talker the participant is instructed to perform the task for</t>
   </si>
   <si>
@@ -152,21 +148,6 @@
     <t>Critical Trials</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">50% of the Attended talkers audios are </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t>Words</t>
-    </r>
-  </si>
-  <si>
     <t>20 Critical Word Pairs</t>
   </si>
   <si>
@@ -188,21 +169,6 @@
     <t>Female ?s</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">50% of the Attended Talker's audios are </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t>Nonwords</t>
-    </r>
-  </si>
-  <si>
     <t>F. Word</t>
   </si>
   <si>
@@ -221,21 +187,6 @@
     <t>A1</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">50% of the Attended Talker's audios heard in the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t>Left Ear</t>
-    </r>
-  </si>
-  <si>
     <t>Total Word Pairs:    80</t>
   </si>
   <si>
@@ -251,75 +202,7 @@
     <t>C4</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">50% of the Attended Talker's audios are heard in the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t>Right Ear</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Male </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">50% of the Attended Talker's audios in the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Left Ear </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">are </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t>Words</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> and 50% are </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t>Nonwords</t>
-    </r>
   </si>
   <si>
     <t>A3</t>
@@ -469,59 +352,6 @@
     <t>B3</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">50% of the Attended Talker's audios in the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t>Right Ear</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> are </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t>Words</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> and 50% are </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t>Nonwords</t>
-    </r>
-  </si>
-  <si>
     <t>C2</t>
   </si>
   <si>
@@ -1114,9 +944,6 @@
     <t>^^ Compared to the ear and gender of the attended talker</t>
   </si>
   <si>
-    <t>Each block has a total of 6 trials. Each item on the test coninuum (asi-ashi) wiil play once in a randomized order before moving to the next block. The test continuum will be produced by both talkers 6 times each. Each talker will produce two blocks in a row before switching to the next to minimize additional strain on cognitive resources that may occur due to swapping between the two talkers. The talkers will alternate every two blocks. Which talker (male/female) speaks first will be counterbalanced within the experiment; 2 possible lists for test trials!!</t>
-  </si>
-  <si>
     <t>Each Exposure List (1-16) will be paired with two versions of each Test List (A &amp; B): one where the male talker is presented in the first two blocks, and another where the female is presented in the first two blocks. See the Test phase page for more details. This will result in 32 possible variants of the experiment.</t>
   </si>
   <si>
@@ -1124,12 +951,6 @@
   </si>
   <si>
     <t>R</t>
-  </si>
-  <si>
-    <t>Talker A: Male</t>
-  </si>
-  <si>
-    <t>Talker A: Female</t>
   </si>
   <si>
     <t>Atypical are paired with atypical</t>
@@ -1355,6 +1176,188 @@
   </si>
   <si>
     <t>Critical Item Combination #2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Where Talker A is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>Male</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Where Talker A is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>Female</t>
+    </r>
+  </si>
+  <si>
+    <t>What qualities are assigned to Talkers A &amp; B during the critical trials</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">50% of the Attended talkers audios are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>Words</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">50% of the Attended Talker's audios are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>Nonwords</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">50% of the Attended Talker's productions are heard in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>Left Ear</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">50% of the Attended Talker's productions are heard in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>Right Ear</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">50% of the Attended Talker's productions heard the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Left Ear </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>Words</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">50% of the Attended Talker's productions heard in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>Right Ear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>Words</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Each block has a total of 6 trials. Each trial is one item from the 6 step asi-ashi test coninuum. Items are presented in a randomized order. All items are heard once before proceeding to the next block. The test continuum will be produced by both talkers 6 times each. The talkers will alternate every two blocks to minimize additional strain on cognitive resources that may occur due to swapping between talkers. Which talker (male/female) speaks first will be counterbalanced within the experiment = two possible lists for test trials</t>
   </si>
 </sst>
 </file>
@@ -1495,21 +1498,22 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <i/>
+      <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1531,12 +1535,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2552,7 +2550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="414">
+  <cellXfs count="379">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2638,13 +2636,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2667,49 +2665,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2724,861 +2722,831 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="40" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="40" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="40" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="40" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="44" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="44" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="44" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="44" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="44" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="44" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="44" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="43" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="41" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="41" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="41" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="41" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="43" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="43" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="43" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="43" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="43" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="43" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="45" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="45" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="45" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="45" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="45" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="45" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="45" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="44" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="46" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="46" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="46" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="46" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="46" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="46" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="46" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="44" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3587,77 +3555,44 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5369,7 +5304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B29CE66-92EA-4368-848D-A617A92CBC0A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="72" workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
@@ -5380,260 +5315,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1717E1-3A73-4856-9876-64B8916619F8}">
-  <dimension ref="B2:N17"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="8.7265625" style="390" customWidth="1"/>
-    <col min="2" max="2" width="5.6328125" style="390" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" style="396" customWidth="1"/>
-    <col min="4" max="6" width="18.1796875" style="390" customWidth="1"/>
-    <col min="7" max="7" width="5.6328125" style="390" customWidth="1"/>
-    <col min="8" max="8" width="10.6328125" style="390" customWidth="1"/>
-    <col min="9" max="10" width="18.1796875" style="390" customWidth="1"/>
-    <col min="11" max="11" width="6.26953125" style="390" customWidth="1"/>
-    <col min="12" max="12" width="5.6328125" style="390" customWidth="1"/>
-    <col min="13" max="13" width="5.36328125" style="390" customWidth="1"/>
-    <col min="14" max="15" width="15.6328125" style="390" customWidth="1"/>
-    <col min="16" max="16384" width="8.7265625" style="390"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:14" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="391" t="s">
-        <v>230</v>
-      </c>
-      <c r="D2" s="391"/>
-      <c r="E2" s="391"/>
-      <c r="H2" s="391" t="s">
-        <v>238</v>
-      </c>
-      <c r="I2" s="391"/>
-      <c r="J2" s="391"/>
-      <c r="N2" s="392" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="393"/>
-      <c r="C3" s="393"/>
-      <c r="D3" s="393"/>
-      <c r="E3" s="393"/>
-      <c r="G3" s="393"/>
-      <c r="H3" s="393"/>
-      <c r="I3" s="393"/>
-      <c r="J3" s="393"/>
-    </row>
-    <row r="4" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="393"/>
-      <c r="C4" s="393"/>
-      <c r="D4" s="394" t="s">
-        <v>226</v>
-      </c>
-      <c r="E4" s="395"/>
-      <c r="G4" s="393"/>
-      <c r="H4" s="393"/>
-      <c r="I4" s="394" t="s">
-        <v>226</v>
-      </c>
-      <c r="J4" s="394"/>
-    </row>
-    <row r="5" spans="2:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="244" t="s">
-        <v>235</v>
-      </c>
-      <c r="E5" s="245" t="s">
-        <v>236</v>
-      </c>
-      <c r="F5" s="396"/>
-      <c r="G5" s="396"/>
-      <c r="H5" s="396"/>
-      <c r="I5" s="238" t="s">
-        <v>235</v>
-      </c>
-      <c r="J5" s="239" t="s">
-        <v>236</v>
-      </c>
-      <c r="K5" s="396"/>
-    </row>
-    <row r="6" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="399" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="240" t="s">
-        <v>221</v>
-      </c>
-      <c r="D6" s="234">
-        <v>0.3276</v>
-      </c>
-      <c r="E6" s="235">
-        <v>0.18959999999999999</v>
-      </c>
-      <c r="G6" s="402" t="s">
-        <v>229</v>
-      </c>
-      <c r="H6" s="242" t="s">
-        <v>228</v>
-      </c>
-      <c r="I6" s="234">
-        <v>0.31030000000000002</v>
-      </c>
-      <c r="J6" s="235">
-        <v>0.22570000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="399"/>
-      <c r="C7" s="241" t="s">
-        <v>222</v>
-      </c>
-      <c r="D7" s="236">
-        <v>0.2586</v>
-      </c>
-      <c r="E7" s="237">
-        <v>0.10340000000000001</v>
-      </c>
-      <c r="G7" s="402"/>
-      <c r="H7" s="243" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="236">
-        <v>0.27589999999999998</v>
-      </c>
-      <c r="J7" s="237">
-        <v>0.13800000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="407"/>
-      <c r="D8" s="408"/>
-      <c r="E8" s="408"/>
-    </row>
-    <row r="9" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="2:14" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="391" t="s">
-        <v>234</v>
-      </c>
-      <c r="D10" s="391"/>
-      <c r="E10" s="391"/>
-      <c r="H10" s="391" t="s">
-        <v>231</v>
-      </c>
-      <c r="I10" s="391"/>
-      <c r="J10" s="391"/>
-    </row>
-    <row r="11" spans="2:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="409"/>
-      <c r="C11" s="409"/>
-      <c r="D11" s="409"/>
-      <c r="E11" s="409"/>
-      <c r="G11" s="393"/>
-      <c r="H11" s="393"/>
-      <c r="I11" s="393"/>
-      <c r="J11" s="393"/>
-    </row>
-    <row r="12" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="409"/>
-      <c r="C12" s="409"/>
-      <c r="D12" s="410" t="s">
-        <v>227</v>
-      </c>
-      <c r="E12" s="410"/>
-      <c r="G12" s="393"/>
-      <c r="H12" s="393"/>
-      <c r="I12" s="411" t="s">
-        <v>227</v>
-      </c>
-      <c r="J12" s="411"/>
-    </row>
-    <row r="13" spans="2:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="396"/>
-      <c r="D13" s="397" t="s">
-        <v>224</v>
-      </c>
-      <c r="E13" s="398" t="s">
-        <v>225</v>
-      </c>
-      <c r="G13" s="396"/>
-      <c r="H13" s="396"/>
-      <c r="I13" s="397" t="s">
-        <v>224</v>
-      </c>
-      <c r="J13" s="398" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="399" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="400" t="s">
-        <v>221</v>
-      </c>
-      <c r="D14" s="412">
-        <v>0.57889999999999997</v>
-      </c>
-      <c r="E14" s="401">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="G14" s="413" t="s">
-        <v>229</v>
-      </c>
-      <c r="H14" s="403" t="s">
-        <v>232</v>
-      </c>
-      <c r="J14" s="401">
-        <v>0.64710000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="399"/>
-      <c r="C15" s="404" t="s">
-        <v>223</v>
-      </c>
-      <c r="D15" s="405">
-        <v>0.4</v>
-      </c>
-      <c r="E15" s="405">
-        <v>0.6</v>
-      </c>
-      <c r="G15" s="413"/>
-      <c r="H15" s="406" t="s">
-        <v>233</v>
-      </c>
-      <c r="J15" s="405">
-        <v>0.85289999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="390"/>
-    </row>
-    <row r="17" s="390" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="D4:E4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC81691-9F24-4C87-8366-AE2912EBB662}">
   <sheetPr>
@@ -5641,8 +5322,8 @@
   </sheetPr>
   <dimension ref="B1:AM718"/>
   <sheetViews>
-    <sheetView zoomScale="61" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AK18" sqref="AK18"/>
+    <sheetView zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -5682,84 +5363,84 @@
       <c r="AB1" s="1"/>
     </row>
     <row r="2" spans="2:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="313" t="s">
+      <c r="B2" s="294" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="313"/>
-      <c r="D2" s="313"/>
-      <c r="E2" s="313"/>
-      <c r="F2" s="313"/>
-      <c r="G2" s="313"/>
+      <c r="C2" s="294"/>
+      <c r="D2" s="294"/>
+      <c r="E2" s="294"/>
+      <c r="F2" s="294"/>
+      <c r="G2" s="294"/>
       <c r="H2" s="4"/>
       <c r="I2" s="6" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="4"/>
-      <c r="M2" s="313" t="s">
+      <c r="M2" s="294" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="313"/>
-      <c r="O2" s="313"/>
-      <c r="P2" s="313"/>
-      <c r="Q2" s="313"/>
-      <c r="R2" s="313"/>
-      <c r="S2" s="313"/>
-      <c r="T2" s="313"/>
-      <c r="U2" s="313"/>
-      <c r="V2" s="313"/>
-      <c r="W2" s="313"/>
-      <c r="X2" s="313"/>
-      <c r="Y2" s="313"/>
-      <c r="Z2" s="313"/>
-      <c r="AA2" s="313"/>
-      <c r="AB2" s="313"/>
+      <c r="N2" s="294"/>
+      <c r="O2" s="294"/>
+      <c r="P2" s="294"/>
+      <c r="Q2" s="294"/>
+      <c r="R2" s="294"/>
+      <c r="S2" s="294"/>
+      <c r="T2" s="294"/>
+      <c r="U2" s="294"/>
+      <c r="V2" s="294"/>
+      <c r="W2" s="294"/>
+      <c r="X2" s="294"/>
+      <c r="Y2" s="294"/>
+      <c r="Z2" s="294"/>
+      <c r="AA2" s="294"/>
+      <c r="AB2" s="294"/>
     </row>
     <row r="3" spans="2:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="314" t="s">
+      <c r="B3" s="295" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="296"/>
+      <c r="D3" s="296"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="296"/>
+      <c r="G3" s="297"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="298" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="17"/>
+      <c r="K3" s="298" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" s="315"/>
-      <c r="D3" s="315"/>
-      <c r="E3" s="315"/>
-      <c r="F3" s="315"/>
-      <c r="G3" s="316"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="317" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="317" t="s">
-        <v>27</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="N3" s="18"/>
-      <c r="O3" s="321" t="s">
+      <c r="O3" s="302" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="321"/>
-      <c r="Q3" s="321"/>
-      <c r="R3" s="321"/>
+      <c r="P3" s="302"/>
+      <c r="Q3" s="302"/>
+      <c r="R3" s="302"/>
       <c r="S3" s="20"/>
-      <c r="T3" s="321" t="s">
+      <c r="T3" s="302" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="321"/>
-      <c r="V3" s="321"/>
-      <c r="W3" s="321"/>
+      <c r="U3" s="302"/>
+      <c r="V3" s="302"/>
+      <c r="W3" s="302"/>
       <c r="X3" s="18"/>
-      <c r="Y3" s="321" t="s">
+      <c r="Y3" s="302" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="321"/>
-      <c r="AA3" s="321"/>
-      <c r="AB3" s="322"/>
+      <c r="Z3" s="302"/>
+      <c r="AA3" s="302"/>
+      <c r="AB3" s="303"/>
     </row>
     <row r="4" spans="2:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D4" s="4"/>
@@ -5767,40 +5448,40 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="319"/>
+      <c r="I4" s="300"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="318"/>
-      <c r="M4" s="318" t="s">
-        <v>167</v>
+      <c r="K4" s="299"/>
+      <c r="M4" s="340" t="s">
+        <v>160</v>
       </c>
       <c r="N4" s="83"/>
-      <c r="O4" s="320" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" s="320"/>
-      <c r="Q4" s="320"/>
-      <c r="R4" s="320"/>
+      <c r="O4" s="301" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="301"/>
+      <c r="Q4" s="301"/>
+      <c r="R4" s="301"/>
       <c r="S4" s="83"/>
-      <c r="T4" s="320" t="s">
+      <c r="T4" s="301" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" s="301"/>
+      <c r="V4" s="301"/>
+      <c r="W4" s="301"/>
+      <c r="X4" s="83"/>
+      <c r="Y4" s="301" t="s">
         <v>29</v>
       </c>
-      <c r="U4" s="320"/>
-      <c r="V4" s="320"/>
-      <c r="W4" s="320"/>
-      <c r="X4" s="83"/>
-      <c r="Y4" s="320" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z4" s="320"/>
-      <c r="AA4" s="320"/>
-      <c r="AB4" s="320"/>
-      <c r="AI4" s="310" t="s">
-        <v>183</v>
-      </c>
-      <c r="AJ4" s="310"/>
-      <c r="AK4" s="310"/>
-      <c r="AL4" s="310"/>
-      <c r="AM4" s="310"/>
+      <c r="Z4" s="301"/>
+      <c r="AA4" s="301"/>
+      <c r="AB4" s="301"/>
+      <c r="AI4" s="291" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ4" s="291"/>
+      <c r="AK4" s="291"/>
+      <c r="AL4" s="291"/>
+      <c r="AM4" s="291"/>
     </row>
     <row r="5" spans="2:39" x14ac:dyDescent="0.35">
       <c r="C5" s="4" t="s">
@@ -5819,10 +5500,10 @@
         <v>3</v>
       </c>
       <c r="H5" s="4"/>
-      <c r="I5" s="319"/>
+      <c r="I5" s="300"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="318"/>
-      <c r="M5" s="318"/>
+      <c r="K5" s="299"/>
+      <c r="M5" s="340"/>
       <c r="O5" s="5" t="s">
         <v>18</v>
       </c>
@@ -5861,11 +5542,11 @@
       <c r="AB5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="AI5" s="310"/>
-      <c r="AJ5" s="310"/>
-      <c r="AK5" s="310"/>
-      <c r="AL5" s="310"/>
-      <c r="AM5" s="310"/>
+      <c r="AI5" s="291"/>
+      <c r="AJ5" s="291"/>
+      <c r="AK5" s="291"/>
+      <c r="AL5" s="291"/>
+      <c r="AM5" s="291"/>
     </row>
     <row r="6" spans="2:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6"/>
@@ -5896,16 +5577,16 @@
       <c r="AA6" s="7"/>
       <c r="AB6" s="7"/>
       <c r="AE6" s="22"/>
-      <c r="AF6" s="311" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG6" s="312"/>
+      <c r="AF6" s="292" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG6" s="293"/>
       <c r="AH6" s="21"/>
-      <c r="AI6" s="310"/>
-      <c r="AJ6" s="310"/>
-      <c r="AK6" s="310"/>
-      <c r="AL6" s="310"/>
-      <c r="AM6" s="310"/>
+      <c r="AI6" s="291"/>
+      <c r="AJ6" s="291"/>
+      <c r="AK6" s="291"/>
+      <c r="AL6" s="291"/>
+      <c r="AM6" s="291"/>
     </row>
     <row r="7" spans="2:39" x14ac:dyDescent="0.35">
       <c r="B7" s="6">
@@ -5974,14 +5655,14 @@
         <v>9</v>
       </c>
       <c r="AE7" s="2"/>
-      <c r="AF7" s="311"/>
-      <c r="AG7" s="312"/>
+      <c r="AF7" s="292"/>
+      <c r="AG7" s="293"/>
       <c r="AH7" s="21"/>
-      <c r="AI7" s="310"/>
-      <c r="AJ7" s="310"/>
-      <c r="AK7" s="310"/>
-      <c r="AL7" s="310"/>
-      <c r="AM7" s="310"/>
+      <c r="AI7" s="291"/>
+      <c r="AJ7" s="291"/>
+      <c r="AK7" s="291"/>
+      <c r="AL7" s="291"/>
+      <c r="AM7" s="291"/>
     </row>
     <row r="8" spans="2:39" x14ac:dyDescent="0.35">
       <c r="C8" s="15" t="s">
@@ -6028,14 +5709,14 @@
         <v>8</v>
       </c>
       <c r="AE8" s="2"/>
-      <c r="AF8" s="311"/>
-      <c r="AG8" s="312"/>
+      <c r="AF8" s="292"/>
+      <c r="AG8" s="293"/>
       <c r="AH8" s="21"/>
-      <c r="AI8" s="310"/>
-      <c r="AJ8" s="310"/>
-      <c r="AK8" s="310"/>
-      <c r="AL8" s="310"/>
-      <c r="AM8" s="310"/>
+      <c r="AI8" s="291"/>
+      <c r="AJ8" s="291"/>
+      <c r="AK8" s="291"/>
+      <c r="AL8" s="291"/>
+      <c r="AM8" s="291"/>
     </row>
     <row r="9" spans="2:39" x14ac:dyDescent="0.35">
       <c r="C9" s="14"/>
@@ -6064,14 +5745,14 @@
       <c r="AA9" s="8"/>
       <c r="AB9" s="9"/>
       <c r="AE9" s="2"/>
-      <c r="AF9" s="311"/>
-      <c r="AG9" s="312"/>
+      <c r="AF9" s="292"/>
+      <c r="AG9" s="293"/>
       <c r="AH9" s="21"/>
-      <c r="AI9" s="310"/>
-      <c r="AJ9" s="310"/>
-      <c r="AK9" s="310"/>
-      <c r="AL9" s="310"/>
-      <c r="AM9" s="310"/>
+      <c r="AI9" s="291"/>
+      <c r="AJ9" s="291"/>
+      <c r="AK9" s="291"/>
+      <c r="AL9" s="291"/>
+      <c r="AM9" s="291"/>
     </row>
     <row r="10" spans="2:39" x14ac:dyDescent="0.35">
       <c r="C10" s="14"/>
@@ -6127,14 +5808,14 @@
         <v>9</v>
       </c>
       <c r="AE10" s="2"/>
-      <c r="AF10" s="311"/>
-      <c r="AG10" s="312"/>
+      <c r="AF10" s="292"/>
+      <c r="AG10" s="293"/>
       <c r="AH10" s="21"/>
-      <c r="AI10" s="310"/>
-      <c r="AJ10" s="310"/>
-      <c r="AK10" s="310"/>
-      <c r="AL10" s="310"/>
-      <c r="AM10" s="310"/>
+      <c r="AI10" s="291"/>
+      <c r="AJ10" s="291"/>
+      <c r="AK10" s="291"/>
+      <c r="AL10" s="291"/>
+      <c r="AM10" s="291"/>
     </row>
     <row r="11" spans="2:39" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
@@ -6172,14 +5853,14 @@
         <v>8</v>
       </c>
       <c r="AE11" s="23"/>
-      <c r="AF11" s="311"/>
-      <c r="AG11" s="312"/>
+      <c r="AF11" s="292"/>
+      <c r="AG11" s="293"/>
       <c r="AH11" s="21"/>
-      <c r="AI11" s="310"/>
-      <c r="AJ11" s="310"/>
-      <c r="AK11" s="310"/>
-      <c r="AL11" s="310"/>
-      <c r="AM11" s="310"/>
+      <c r="AI11" s="291"/>
+      <c r="AJ11" s="291"/>
+      <c r="AK11" s="291"/>
+      <c r="AL11" s="291"/>
+      <c r="AM11" s="291"/>
     </row>
     <row r="12" spans="2:39" x14ac:dyDescent="0.35">
       <c r="B12" s="6"/>
@@ -6209,11 +5890,11 @@
       <c r="Z12" s="11"/>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
-      <c r="AI12" s="310"/>
-      <c r="AJ12" s="310"/>
-      <c r="AK12" s="310"/>
-      <c r="AL12" s="310"/>
-      <c r="AM12" s="310"/>
+      <c r="AI12" s="291"/>
+      <c r="AJ12" s="291"/>
+      <c r="AK12" s="291"/>
+      <c r="AL12" s="291"/>
+      <c r="AM12" s="291"/>
     </row>
     <row r="13" spans="2:39" x14ac:dyDescent="0.35">
       <c r="B13" s="6">
@@ -6281,11 +5962,11 @@
       <c r="AB13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AI13" s="310"/>
-      <c r="AJ13" s="310"/>
-      <c r="AK13" s="310"/>
-      <c r="AL13" s="310"/>
-      <c r="AM13" s="310"/>
+      <c r="AI13" s="291"/>
+      <c r="AJ13" s="291"/>
+      <c r="AK13" s="291"/>
+      <c r="AL13" s="291"/>
+      <c r="AM13" s="291"/>
     </row>
     <row r="14" spans="2:39" x14ac:dyDescent="0.35">
       <c r="C14" s="15" t="s">
@@ -6477,10 +6158,10 @@
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
       <c r="AE18" s="22"/>
-      <c r="AF18" s="311" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG18" s="312"/>
+      <c r="AF18" s="292" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG18" s="293"/>
     </row>
     <row r="19" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B19" s="6">
@@ -6549,8 +6230,8 @@
         <v>9</v>
       </c>
       <c r="AE19" s="2"/>
-      <c r="AF19" s="311"/>
-      <c r="AG19" s="312"/>
+      <c r="AF19" s="292"/>
+      <c r="AG19" s="293"/>
     </row>
     <row r="20" spans="2:33" x14ac:dyDescent="0.35">
       <c r="C20" s="15" t="s">
@@ -6597,8 +6278,8 @@
         <v>8</v>
       </c>
       <c r="AE20" s="2"/>
-      <c r="AF20" s="311"/>
-      <c r="AG20" s="312"/>
+      <c r="AF20" s="292"/>
+      <c r="AG20" s="293"/>
     </row>
     <row r="21" spans="2:33" x14ac:dyDescent="0.35">
       <c r="C21" s="14"/>
@@ -6627,8 +6308,8 @@
       <c r="AA21" s="8"/>
       <c r="AB21" s="9"/>
       <c r="AE21" s="2"/>
-      <c r="AF21" s="311"/>
-      <c r="AG21" s="312"/>
+      <c r="AF21" s="292"/>
+      <c r="AG21" s="293"/>
     </row>
     <row r="22" spans="2:33" x14ac:dyDescent="0.35">
       <c r="C22" s="14"/>
@@ -6684,8 +6365,8 @@
         <v>9</v>
       </c>
       <c r="AE22" s="2"/>
-      <c r="AF22" s="311"/>
-      <c r="AG22" s="312"/>
+      <c r="AF22" s="292"/>
+      <c r="AG22" s="293"/>
     </row>
     <row r="23" spans="2:33" x14ac:dyDescent="0.35">
       <c r="C23" s="14"/>
@@ -6722,8 +6403,8 @@
         <v>8</v>
       </c>
       <c r="AE23" s="23"/>
-      <c r="AF23" s="311"/>
-      <c r="AG23" s="312"/>
+      <c r="AF23" s="292"/>
+      <c r="AG23" s="293"/>
     </row>
     <row r="24" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B24" s="6"/>
@@ -13187,8 +12868,8 @@
   </sheetPr>
   <dimension ref="B1:AD695"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="64" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG9" sqref="AG9"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="64" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5:AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -13261,86 +12942,86 @@
     </row>
     <row r="3" spans="2:30" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="199"/>
-      <c r="C3" s="313" t="s">
+      <c r="C3" s="294" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="313"/>
-      <c r="E3" s="313"/>
-      <c r="F3" s="313"/>
-      <c r="G3" s="313"/>
-      <c r="H3" s="313"/>
+      <c r="D3" s="294"/>
+      <c r="E3" s="294"/>
+      <c r="F3" s="294"/>
+      <c r="G3" s="294"/>
+      <c r="H3" s="294"/>
       <c r="I3" s="4"/>
       <c r="J3" s="6" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="4"/>
-      <c r="N3" s="313" t="s">
+      <c r="N3" s="294" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="313"/>
-      <c r="P3" s="313"/>
-      <c r="Q3" s="313"/>
-      <c r="R3" s="313"/>
-      <c r="S3" s="313"/>
-      <c r="T3" s="313"/>
-      <c r="U3" s="313"/>
-      <c r="V3" s="313"/>
-      <c r="W3" s="313"/>
-      <c r="X3" s="313"/>
-      <c r="Y3" s="313"/>
-      <c r="Z3" s="313"/>
-      <c r="AA3" s="313"/>
-      <c r="AB3" s="313"/>
-      <c r="AC3" s="313"/>
+      <c r="O3" s="294"/>
+      <c r="P3" s="294"/>
+      <c r="Q3" s="294"/>
+      <c r="R3" s="294"/>
+      <c r="S3" s="294"/>
+      <c r="T3" s="294"/>
+      <c r="U3" s="294"/>
+      <c r="V3" s="294"/>
+      <c r="W3" s="294"/>
+      <c r="X3" s="294"/>
+      <c r="Y3" s="294"/>
+      <c r="Z3" s="294"/>
+      <c r="AA3" s="294"/>
+      <c r="AB3" s="294"/>
+      <c r="AC3" s="294"/>
       <c r="AD3" s="174"/>
     </row>
     <row r="4" spans="2:30" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="199"/>
-      <c r="C4" s="314" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="315"/>
-      <c r="E4" s="315"/>
-      <c r="F4" s="315"/>
-      <c r="G4" s="315"/>
-      <c r="H4" s="316"/>
+      <c r="C4" s="295" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="298"/>
+      <c r="E4" s="298"/>
+      <c r="F4" s="298"/>
+      <c r="G4" s="298"/>
+      <c r="H4" s="376"/>
       <c r="I4" s="17"/>
-      <c r="J4" s="317" t="s">
+      <c r="J4" s="374" t="s">
         <v>25</v>
       </c>
       <c r="K4" s="17"/>
-      <c r="L4" s="317" t="s">
-        <v>219</v>
+      <c r="L4" s="374" t="s">
+        <v>209</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="O4" s="18"/>
-      <c r="P4" s="321" t="s">
+      <c r="P4" s="302" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="321"/>
-      <c r="R4" s="321"/>
-      <c r="S4" s="321"/>
+      <c r="Q4" s="302"/>
+      <c r="R4" s="302"/>
+      <c r="S4" s="302"/>
       <c r="T4" s="20"/>
-      <c r="U4" s="321" t="s">
+      <c r="U4" s="302" t="s">
         <v>13</v>
       </c>
-      <c r="V4" s="321"/>
-      <c r="W4" s="321"/>
-      <c r="X4" s="321"/>
+      <c r="V4" s="302"/>
+      <c r="W4" s="302"/>
+      <c r="X4" s="302"/>
       <c r="Y4" s="18"/>
-      <c r="Z4" s="321" t="s">
+      <c r="Z4" s="302" t="s">
         <v>14</v>
       </c>
-      <c r="AA4" s="321"/>
-      <c r="AB4" s="321"/>
-      <c r="AC4" s="322"/>
+      <c r="AA4" s="302"/>
+      <c r="AB4" s="302"/>
+      <c r="AC4" s="303"/>
       <c r="AD4" s="174"/>
     </row>
     <row r="5" spans="2:30" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13350,33 +13031,33 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="319"/>
+      <c r="J5" s="375"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="318"/>
-      <c r="N5" s="318" t="s">
-        <v>220</v>
+      <c r="L5" s="340"/>
+      <c r="N5" s="340" t="s">
+        <v>210</v>
       </c>
       <c r="O5" s="83"/>
-      <c r="P5" s="320" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" s="320"/>
-      <c r="R5" s="320"/>
-      <c r="S5" s="320"/>
+      <c r="P5" s="377" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="377"/>
+      <c r="R5" s="377"/>
+      <c r="S5" s="377"/>
       <c r="T5" s="83"/>
-      <c r="U5" s="320" t="s">
+      <c r="U5" s="377" t="s">
+        <v>28</v>
+      </c>
+      <c r="V5" s="377"/>
+      <c r="W5" s="377"/>
+      <c r="X5" s="377"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="377" t="s">
         <v>29</v>
       </c>
-      <c r="V5" s="320"/>
-      <c r="W5" s="320"/>
-      <c r="X5" s="320"/>
-      <c r="Y5" s="83"/>
-      <c r="Z5" s="320" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA5" s="320"/>
-      <c r="AB5" s="320"/>
-      <c r="AC5" s="320"/>
+      <c r="AA5" s="377"/>
+      <c r="AB5" s="377"/>
+      <c r="AC5" s="377"/>
       <c r="AD5" s="174"/>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.35">
@@ -13397,10 +13078,10 @@
         <v>3</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="319"/>
+      <c r="J6" s="375"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="318"/>
-      <c r="N6" s="318"/>
+      <c r="L6" s="340"/>
+      <c r="N6" s="340"/>
       <c r="P6" s="5" t="s">
         <v>18</v>
       </c>
@@ -19814,8 +19495,8 @@
   </sheetPr>
   <dimension ref="B2:AO41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="64" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:Z29"/>
+    <sheetView showGridLines="0" zoomScale="64" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="AM24" sqref="AM24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -19837,533 +19518,529 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:41" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="V2" s="327" t="s">
-        <v>72</v>
-      </c>
-      <c r="W2" s="327"/>
-      <c r="X2" s="327"/>
+      <c r="V2" s="308" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" s="308"/>
+      <c r="X2" s="308"/>
     </row>
     <row r="3" spans="2:41" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="120" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C3" s="121" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="344" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="345"/>
-      <c r="F3" s="345"/>
+        <v>62</v>
+      </c>
+      <c r="D3" s="304" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="305"/>
+      <c r="F3" s="305"/>
       <c r="G3" s="39"/>
       <c r="H3" s="120" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="I3" s="121" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" s="344" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3" s="345"/>
-      <c r="L3" s="345"/>
-      <c r="N3" s="348" t="s">
-        <v>72</v>
-      </c>
-      <c r="O3" s="348"/>
+        <v>62</v>
+      </c>
+      <c r="J3" s="304" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="305"/>
+      <c r="L3" s="305"/>
+      <c r="N3" s="306" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="306"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="348" t="s">
-        <v>73</v>
-      </c>
-      <c r="R3" s="348"/>
+      <c r="Q3" s="306" t="s">
+        <v>66</v>
+      </c>
+      <c r="R3" s="306"/>
       <c r="S3" s="1"/>
-      <c r="V3" s="328"/>
-      <c r="W3" s="328"/>
-      <c r="X3" s="328"/>
-      <c r="AB3" s="324" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC3" s="324"/>
-      <c r="AD3" s="324"/>
-      <c r="AE3" s="324"/>
-      <c r="AF3" s="324"/>
-      <c r="AG3" s="324"/>
-      <c r="AH3" s="324"/>
-      <c r="AI3" s="324"/>
-      <c r="AJ3" s="324"/>
-      <c r="AL3" s="324" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM3" s="324"/>
-      <c r="AN3" s="324"/>
+      <c r="V3" s="329"/>
+      <c r="W3" s="329"/>
+      <c r="X3" s="329"/>
+      <c r="AB3" s="326" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC3" s="326"/>
+      <c r="AD3" s="326"/>
+      <c r="AE3" s="326"/>
+      <c r="AF3" s="326"/>
+      <c r="AG3" s="326"/>
+      <c r="AH3" s="326"/>
+      <c r="AI3" s="326"/>
+      <c r="AJ3" s="326"/>
+      <c r="AL3" s="326" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM3" s="326"/>
+      <c r="AN3" s="326"/>
     </row>
     <row r="4" spans="2:41" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="55" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="344"/>
-      <c r="E4" s="345"/>
-      <c r="F4" s="345"/>
+        <v>68</v>
+      </c>
+      <c r="D4" s="304"/>
+      <c r="E4" s="305"/>
+      <c r="F4" s="305"/>
       <c r="G4" s="39"/>
       <c r="H4" s="55" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I4" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" s="344"/>
-      <c r="K4" s="345"/>
-      <c r="L4" s="345"/>
+        <v>69</v>
+      </c>
+      <c r="J4" s="304"/>
+      <c r="K4" s="305"/>
+      <c r="L4" s="305"/>
       <c r="N4" s="46" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="O4" s="113" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="114" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="R4" s="115" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="S4" s="83"/>
-      <c r="U4" s="233" t="s">
-        <v>68</v>
-      </c>
+      <c r="U4" s="233"/>
       <c r="V4" s="228" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="W4" s="223"/>
       <c r="X4" s="229" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y4" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB4" s="327" t="s">
-        <v>186</v>
-      </c>
-      <c r="AC4" s="327"/>
-      <c r="AD4" s="327"/>
-      <c r="AE4" s="327"/>
-      <c r="AF4" s="327"/>
-      <c r="AG4" s="327"/>
-      <c r="AH4" s="327"/>
-      <c r="AI4" s="327"/>
-      <c r="AJ4" s="327"/>
-      <c r="AL4" s="310" t="s">
-        <v>190</v>
-      </c>
-      <c r="AM4" s="332"/>
-      <c r="AN4" s="332"/>
+        <v>62</v>
+      </c>
+      <c r="Y4" s="233"/>
+      <c r="AB4" s="308" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC4" s="308"/>
+      <c r="AD4" s="308"/>
+      <c r="AE4" s="308"/>
+      <c r="AF4" s="308"/>
+      <c r="AG4" s="308"/>
+      <c r="AH4" s="308"/>
+      <c r="AI4" s="308"/>
+      <c r="AJ4" s="308"/>
+      <c r="AL4" s="291" t="s">
+        <v>180</v>
+      </c>
+      <c r="AM4" s="321"/>
+      <c r="AN4" s="321"/>
     </row>
     <row r="5" spans="2:41" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="52" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="344" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="345"/>
-      <c r="F5" s="345"/>
+        <v>73</v>
+      </c>
+      <c r="D5" s="304" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="305"/>
+      <c r="F5" s="305"/>
       <c r="G5" s="39"/>
       <c r="H5" s="52" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I5" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5" s="344"/>
-      <c r="K5" s="345"/>
-      <c r="L5" s="345"/>
+        <v>75</v>
+      </c>
+      <c r="J5" s="304"/>
+      <c r="K5" s="305"/>
+      <c r="L5" s="305"/>
       <c r="N5" s="94" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O5" s="95" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="99" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R5" s="98" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S5" s="1"/>
-      <c r="T5" s="329" t="s">
-        <v>139</v>
+      <c r="T5" s="322" t="s">
+        <v>132</v>
       </c>
       <c r="U5" s="71"/>
       <c r="V5" s="207" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="W5" s="210"/>
       <c r="X5" s="208" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="Y5" s="73"/>
-      <c r="Z5" s="331" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB5" s="327"/>
-      <c r="AC5" s="327"/>
-      <c r="AD5" s="327"/>
-      <c r="AE5" s="327"/>
-      <c r="AF5" s="327"/>
-      <c r="AG5" s="327"/>
-      <c r="AH5" s="327"/>
-      <c r="AI5" s="327"/>
-      <c r="AJ5" s="327"/>
-      <c r="AL5" s="332"/>
-      <c r="AM5" s="332"/>
-      <c r="AN5" s="332"/>
+      <c r="Z5" s="324" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB5" s="308"/>
+      <c r="AC5" s="308"/>
+      <c r="AD5" s="308"/>
+      <c r="AE5" s="308"/>
+      <c r="AF5" s="308"/>
+      <c r="AG5" s="308"/>
+      <c r="AH5" s="308"/>
+      <c r="AI5" s="308"/>
+      <c r="AJ5" s="308"/>
+      <c r="AL5" s="321"/>
+      <c r="AM5" s="321"/>
+      <c r="AN5" s="321"/>
       <c r="AO5" s="1"/>
     </row>
     <row r="6" spans="2:41" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="57" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D6" s="41"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="39"/>
       <c r="H6" s="57" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I6" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="J6" s="344"/>
-      <c r="K6" s="345"/>
-      <c r="L6" s="345"/>
+        <v>80</v>
+      </c>
+      <c r="J6" s="304"/>
+      <c r="K6" s="305"/>
+      <c r="L6" s="305"/>
       <c r="N6" s="72" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="O6" s="87" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="Q6" s="96" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="R6" s="97" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="S6" s="1"/>
-      <c r="T6" s="330"/>
+      <c r="T6" s="323"/>
       <c r="U6" s="74"/>
       <c r="V6" s="209" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="W6" s="210"/>
       <c r="X6" s="211" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="Y6" s="76"/>
-      <c r="Z6" s="331"/>
+      <c r="Z6" s="324"/>
       <c r="AB6" s="111" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AC6" s="166" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AD6" s="101" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AE6" s="109" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="AF6" s="1"/>
       <c r="AG6" s="111" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AH6" s="103" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AI6" s="170" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AJ6" s="109" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL6" s="332"/>
-      <c r="AM6" s="332"/>
-      <c r="AN6" s="332"/>
+        <v>88</v>
+      </c>
+      <c r="AL6" s="321"/>
+      <c r="AM6" s="321"/>
+      <c r="AN6" s="321"/>
       <c r="AO6" s="1"/>
     </row>
     <row r="7" spans="2:41" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="52" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="344" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="345"/>
-      <c r="F7" s="345"/>
+        <v>75</v>
+      </c>
+      <c r="D7" s="304" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="305"/>
+      <c r="F7" s="305"/>
       <c r="G7" s="39"/>
       <c r="H7" s="52" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I7" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="J7" s="344"/>
-      <c r="K7" s="345"/>
-      <c r="L7" s="345"/>
+        <v>85</v>
+      </c>
+      <c r="J7" s="304"/>
+      <c r="K7" s="305"/>
+      <c r="L7" s="305"/>
       <c r="N7" s="40" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="O7" s="88" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="Q7" s="63" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="R7" s="91" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="S7" s="1"/>
-      <c r="T7" s="330"/>
+      <c r="T7" s="323"/>
       <c r="U7" s="74"/>
       <c r="V7" s="212" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="W7" s="210"/>
       <c r="X7" s="213" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="Y7" s="76"/>
-      <c r="Z7" s="331"/>
+      <c r="Z7" s="324"/>
       <c r="AA7" s="82"/>
       <c r="AB7" s="168" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AC7" s="75" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AD7" s="102" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AE7" s="110" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AF7" s="1"/>
       <c r="AG7" s="112" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AH7" s="104" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI7" s="79" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ7" s="169" t="s">
-        <v>185</v>
-      </c>
-      <c r="AL7" s="332"/>
-      <c r="AM7" s="332"/>
-      <c r="AN7" s="332"/>
+        <v>177</v>
+      </c>
+      <c r="AL7" s="321"/>
+      <c r="AM7" s="321"/>
+      <c r="AN7" s="321"/>
       <c r="AO7" s="1"/>
     </row>
     <row r="8" spans="2:41" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="57" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="344"/>
-      <c r="E8" s="345"/>
-      <c r="F8" s="345"/>
+        <v>90</v>
+      </c>
+      <c r="D8" s="304"/>
+      <c r="E8" s="305"/>
+      <c r="F8" s="305"/>
       <c r="G8" s="27"/>
       <c r="H8" s="57" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I8" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="J8" s="346" t="s">
-        <v>98</v>
-      </c>
-      <c r="K8" s="347"/>
-      <c r="L8" s="347"/>
+        <v>114</v>
+      </c>
+      <c r="J8" s="319" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" s="320"/>
+      <c r="L8" s="320"/>
       <c r="N8" s="61" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="O8" s="89" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="59" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="R8" s="92" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="S8" s="1"/>
-      <c r="T8" s="330"/>
+      <c r="T8" s="323"/>
       <c r="U8" s="74"/>
       <c r="V8" s="209" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="W8" s="210"/>
       <c r="X8" s="211" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="Y8" s="76"/>
-      <c r="Z8" s="331"/>
+      <c r="Z8" s="324"/>
       <c r="AA8" s="82"/>
       <c r="AB8" s="106" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AC8" s="103"/>
       <c r="AD8" s="79"/>
       <c r="AE8" s="171" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AF8" s="1"/>
       <c r="AG8" s="172" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AH8" s="75"/>
       <c r="AI8" s="101"/>
       <c r="AJ8" s="105" t="s">
-        <v>185</v>
-      </c>
-      <c r="AL8" s="332"/>
-      <c r="AM8" s="332"/>
-      <c r="AN8" s="332"/>
+        <v>177</v>
+      </c>
+      <c r="AL8" s="321"/>
+      <c r="AM8" s="321"/>
+      <c r="AN8" s="321"/>
       <c r="AO8" s="1"/>
     </row>
     <row r="9" spans="2:41" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="52" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="344"/>
-      <c r="E9" s="345"/>
-      <c r="F9" s="345"/>
+        <v>82</v>
+      </c>
+      <c r="D9" s="304"/>
+      <c r="E9" s="305"/>
+      <c r="F9" s="305"/>
       <c r="G9" s="39"/>
       <c r="H9" s="52" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="I9" s="56" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="N9" s="40" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="O9" s="88" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="Q9" s="63" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="R9" s="91" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="S9" s="1"/>
-      <c r="T9" s="330"/>
+      <c r="T9" s="323"/>
       <c r="U9" s="74"/>
       <c r="V9" s="212" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="W9" s="210"/>
       <c r="X9" s="213" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Y9" s="76"/>
-      <c r="Z9" s="331"/>
+      <c r="Z9" s="324"/>
       <c r="AA9" s="82"/>
       <c r="AB9" s="107" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="AC9" s="104" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AD9" s="167" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AE9" s="108" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AF9" s="1"/>
       <c r="AG9" s="107" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="AH9" s="173" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AI9" s="102" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AJ9" s="108" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL9" s="332"/>
-      <c r="AM9" s="332"/>
-      <c r="AN9" s="332"/>
+        <v>71</v>
+      </c>
+      <c r="AL9" s="321"/>
+      <c r="AM9" s="321"/>
+      <c r="AN9" s="321"/>
       <c r="AO9" s="1"/>
     </row>
     <row r="10" spans="2:41" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="57" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="344"/>
-      <c r="E10" s="345"/>
-      <c r="F10" s="345"/>
+        <v>99</v>
+      </c>
+      <c r="D10" s="304"/>
+      <c r="E10" s="305"/>
+      <c r="F10" s="305"/>
       <c r="G10" s="39"/>
       <c r="H10" s="57" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="I10" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" s="344" t="s">
-        <v>107</v>
-      </c>
-      <c r="K10" s="345"/>
-      <c r="L10" s="345"/>
+        <v>68</v>
+      </c>
+      <c r="J10" s="304" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" s="305"/>
+      <c r="L10" s="305"/>
       <c r="N10" s="61" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="O10" s="89" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Q10" s="59" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="R10" s="92" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="S10" s="1"/>
-      <c r="T10" s="330"/>
+      <c r="T10" s="323"/>
       <c r="U10" s="74"/>
       <c r="V10" s="209" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="W10" s="210"/>
       <c r="X10" s="211" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="Y10" s="76"/>
-      <c r="Z10" s="331"/>
+      <c r="Z10" s="324"/>
       <c r="AA10" s="82"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
@@ -20374,222 +20051,222 @@
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
-      <c r="AL10" s="332"/>
-      <c r="AM10" s="332"/>
-      <c r="AN10" s="332"/>
+      <c r="AL10" s="321"/>
+      <c r="AM10" s="321"/>
+      <c r="AN10" s="321"/>
       <c r="AO10" s="1"/>
     </row>
     <row r="11" spans="2:41" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="52" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="344"/>
-      <c r="E11" s="345"/>
-      <c r="F11" s="345"/>
+        <v>102</v>
+      </c>
+      <c r="D11" s="304"/>
+      <c r="E11" s="305"/>
+      <c r="F11" s="305"/>
       <c r="G11" s="39"/>
       <c r="H11" s="52" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="I11" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="J11" s="344"/>
-      <c r="K11" s="345"/>
-      <c r="L11" s="345"/>
+        <v>99</v>
+      </c>
+      <c r="J11" s="304"/>
+      <c r="K11" s="305"/>
+      <c r="L11" s="305"/>
       <c r="N11" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="O11" s="88" t="s">
         <v>104</v>
       </c>
-      <c r="O11" s="88" t="s">
-        <v>111</v>
-      </c>
       <c r="Q11" s="63" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="R11" s="91" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="S11" s="1"/>
-      <c r="T11" s="330"/>
+      <c r="T11" s="323"/>
       <c r="U11" s="74"/>
       <c r="V11" s="212" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="W11" s="210"/>
       <c r="X11" s="213" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="Y11" s="76"/>
-      <c r="Z11" s="331"/>
+      <c r="Z11" s="324"/>
       <c r="AA11" s="82"/>
       <c r="AB11" s="111" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AC11" s="166" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AD11" s="101" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AE11" s="109" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="AF11" s="1"/>
       <c r="AG11" s="111" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AH11" s="103" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AI11" s="170" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AJ11" s="109" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL11" s="332"/>
-      <c r="AM11" s="332"/>
-      <c r="AN11" s="332"/>
+        <v>88</v>
+      </c>
+      <c r="AL11" s="321"/>
+      <c r="AM11" s="321"/>
+      <c r="AN11" s="321"/>
       <c r="AO11" s="1"/>
     </row>
     <row r="12" spans="2:41" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="57" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="344"/>
-      <c r="E12" s="345"/>
-      <c r="F12" s="345"/>
+        <v>104</v>
+      </c>
+      <c r="D12" s="304"/>
+      <c r="E12" s="305"/>
+      <c r="F12" s="305"/>
       <c r="G12" s="39"/>
       <c r="H12" s="57" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="I12" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="J12" s="344"/>
-      <c r="K12" s="345"/>
-      <c r="L12" s="345"/>
+        <v>90</v>
+      </c>
+      <c r="J12" s="304"/>
+      <c r="K12" s="305"/>
+      <c r="L12" s="305"/>
       <c r="N12" s="61" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="O12" s="89" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="Q12" s="59" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="R12" s="92" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="S12" s="1"/>
-      <c r="T12" s="330"/>
+      <c r="T12" s="323"/>
       <c r="U12" s="74"/>
       <c r="V12" s="209" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="W12" s="210"/>
       <c r="X12" s="211" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="Y12" s="76"/>
-      <c r="Z12" s="331"/>
+      <c r="Z12" s="324"/>
       <c r="AA12" s="82"/>
       <c r="AB12" s="168" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AC12" s="75"/>
       <c r="AD12" s="102"/>
       <c r="AE12" s="110" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AF12" s="1"/>
       <c r="AG12" s="112" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AH12" s="104"/>
       <c r="AI12" s="79"/>
       <c r="AJ12" s="169" t="s">
-        <v>185</v>
-      </c>
-      <c r="AL12" s="332"/>
-      <c r="AM12" s="332"/>
-      <c r="AN12" s="332"/>
+        <v>177</v>
+      </c>
+      <c r="AL12" s="321"/>
+      <c r="AM12" s="321"/>
+      <c r="AN12" s="321"/>
       <c r="AO12" s="1"/>
     </row>
     <row r="13" spans="2:41" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="52" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="344"/>
-      <c r="E13" s="345"/>
-      <c r="F13" s="345"/>
+        <v>85</v>
+      </c>
+      <c r="D13" s="304"/>
+      <c r="E13" s="305"/>
+      <c r="F13" s="305"/>
       <c r="G13" s="39"/>
       <c r="H13" s="52" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="I13" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="J13" s="344"/>
-      <c r="K13" s="345"/>
-      <c r="L13" s="345"/>
+        <v>73</v>
+      </c>
+      <c r="J13" s="304"/>
+      <c r="K13" s="305"/>
+      <c r="L13" s="305"/>
       <c r="N13" s="40" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O13" s="88" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="Q13" s="63" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="R13" s="91" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="S13" s="1"/>
-      <c r="T13" s="330"/>
+      <c r="T13" s="323"/>
       <c r="U13" s="74"/>
       <c r="V13" s="212" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="W13" s="210"/>
       <c r="X13" s="213" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="Y13" s="76"/>
-      <c r="Z13" s="331"/>
+      <c r="Z13" s="324"/>
       <c r="AA13" s="82"/>
       <c r="AB13" s="106" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AC13" s="103" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AD13" s="79" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AE13" s="171" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AF13" s="1"/>
       <c r="AG13" s="172" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AH13" s="75" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI13" s="101" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ13" s="105" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AL13" s="21"/>
       <c r="AM13" s="21"/>
@@ -20598,160 +20275,160 @@
     </row>
     <row r="14" spans="2:41" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="57" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="344"/>
-      <c r="E14" s="345"/>
-      <c r="F14" s="345"/>
+        <v>108</v>
+      </c>
+      <c r="D14" s="304"/>
+      <c r="E14" s="305"/>
+      <c r="F14" s="305"/>
       <c r="G14" s="39"/>
       <c r="H14" s="57" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I14" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="J14" s="344"/>
-      <c r="K14" s="345"/>
-      <c r="L14" s="345"/>
+        <v>70</v>
+      </c>
+      <c r="J14" s="304"/>
+      <c r="K14" s="305"/>
+      <c r="L14" s="305"/>
       <c r="N14" s="61" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O14" s="89" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="59" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="R14" s="92" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="S14" s="1"/>
-      <c r="T14" s="330"/>
+      <c r="T14" s="323"/>
       <c r="U14" s="74"/>
       <c r="V14" s="214" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="W14" s="210"/>
       <c r="X14" s="215" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="Y14" s="76"/>
-      <c r="Z14" s="331"/>
+      <c r="Z14" s="324"/>
       <c r="AA14" s="82"/>
       <c r="AB14" s="107" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="AC14" s="104" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AD14" s="167" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AE14" s="108" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AF14" s="1"/>
       <c r="AG14" s="107" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="AH14" s="173" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AI14" s="102" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AJ14" s="108" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="2:41" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="52" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="344"/>
-      <c r="E15" s="345"/>
-      <c r="F15" s="345"/>
+        <v>80</v>
+      </c>
+      <c r="D15" s="304"/>
+      <c r="E15" s="305"/>
+      <c r="F15" s="305"/>
       <c r="G15" s="39"/>
       <c r="H15" s="52" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I15" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="J15" s="344"/>
-      <c r="K15" s="345"/>
-      <c r="L15" s="345"/>
+        <v>86</v>
+      </c>
+      <c r="J15" s="304"/>
+      <c r="K15" s="305"/>
+      <c r="L15" s="305"/>
       <c r="N15" s="44" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="O15" s="90" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="Q15" s="81" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="R15" s="93" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="S15" s="1"/>
-      <c r="T15" s="330"/>
+      <c r="T15" s="323"/>
       <c r="U15" s="77"/>
       <c r="V15" s="224"/>
       <c r="W15" s="225"/>
       <c r="X15" s="226"/>
       <c r="Y15" s="78"/>
-      <c r="Z15" s="331"/>
-      <c r="AL15" s="310" t="s">
-        <v>122</v>
-      </c>
-      <c r="AM15" s="310"/>
-      <c r="AN15" s="310"/>
+      <c r="Z15" s="324"/>
+      <c r="AL15" s="291" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM15" s="291"/>
+      <c r="AN15" s="291"/>
       <c r="AO15" s="1"/>
     </row>
     <row r="16" spans="2:41" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="57" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="344"/>
-      <c r="E16" s="345"/>
-      <c r="F16" s="345"/>
+        <v>86</v>
+      </c>
+      <c r="D16" s="304"/>
+      <c r="E16" s="305"/>
+      <c r="F16" s="305"/>
       <c r="G16" s="39"/>
       <c r="H16" s="57" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="I16" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="J16" s="344"/>
-      <c r="K16" s="345"/>
-      <c r="L16" s="345"/>
-      <c r="T16" s="330"/>
+        <v>82</v>
+      </c>
+      <c r="J16" s="304"/>
+      <c r="K16" s="305"/>
+      <c r="L16" s="305"/>
+      <c r="T16" s="323"/>
       <c r="U16" s="74"/>
       <c r="V16" s="216"/>
       <c r="W16" s="220"/>
       <c r="X16" s="217"/>
       <c r="Y16" s="76"/>
-      <c r="Z16" s="331"/>
-      <c r="AB16" s="327" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC16" s="327"/>
-      <c r="AD16" s="327"/>
-      <c r="AE16" s="327"/>
-      <c r="AF16" s="327"/>
-      <c r="AG16" s="327"/>
-      <c r="AH16" s="327"/>
-      <c r="AI16" s="327"/>
-      <c r="AJ16" s="327"/>
+      <c r="Z16" s="324"/>
+      <c r="AB16" s="308" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC16" s="308"/>
+      <c r="AD16" s="308"/>
+      <c r="AE16" s="308"/>
+      <c r="AF16" s="308"/>
+      <c r="AG16" s="308"/>
+      <c r="AH16" s="308"/>
+      <c r="AI16" s="308"/>
+      <c r="AJ16" s="308"/>
       <c r="AL16" s="21"/>
       <c r="AM16" s="21"/>
       <c r="AN16" s="21"/>
@@ -20759,270 +20436,270 @@
     </row>
     <row r="17" spans="2:41" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="52" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="344"/>
-      <c r="E17" s="345"/>
-      <c r="F17" s="345"/>
+        <v>69</v>
+      </c>
+      <c r="D17" s="304"/>
+      <c r="E17" s="305"/>
+      <c r="F17" s="305"/>
       <c r="G17" s="39"/>
       <c r="H17" s="52" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I17" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="J17" s="344"/>
-      <c r="K17" s="345"/>
-      <c r="L17" s="345"/>
+        <v>96</v>
+      </c>
+      <c r="J17" s="304"/>
+      <c r="K17" s="305"/>
+      <c r="L17" s="305"/>
       <c r="S17" s="84"/>
-      <c r="T17" s="330"/>
+      <c r="T17" s="323"/>
       <c r="U17" s="74"/>
       <c r="V17" s="218" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="W17" s="220"/>
       <c r="X17" s="219" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Y17" s="76"/>
-      <c r="Z17" s="331"/>
+      <c r="Z17" s="324"/>
       <c r="AA17" s="82"/>
-      <c r="AB17" s="327"/>
-      <c r="AC17" s="327"/>
-      <c r="AD17" s="327"/>
-      <c r="AE17" s="327"/>
-      <c r="AF17" s="327"/>
-      <c r="AG17" s="327"/>
-      <c r="AH17" s="327"/>
-      <c r="AI17" s="327"/>
-      <c r="AJ17" s="327"/>
-      <c r="AL17" s="310" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM17" s="310"/>
-      <c r="AN17" s="310"/>
+      <c r="AB17" s="308"/>
+      <c r="AC17" s="308"/>
+      <c r="AD17" s="308"/>
+      <c r="AE17" s="308"/>
+      <c r="AF17" s="308"/>
+      <c r="AG17" s="308"/>
+      <c r="AH17" s="308"/>
+      <c r="AI17" s="308"/>
+      <c r="AJ17" s="308"/>
+      <c r="AL17" s="291" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM17" s="291"/>
+      <c r="AN17" s="291"/>
       <c r="AO17" s="1"/>
     </row>
     <row r="18" spans="2:41" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="57" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" s="344"/>
-      <c r="E18" s="345"/>
-      <c r="F18" s="345"/>
+        <v>114</v>
+      </c>
+      <c r="D18" s="304"/>
+      <c r="E18" s="305"/>
+      <c r="F18" s="305"/>
       <c r="G18" s="39"/>
       <c r="H18" s="57" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="I18" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="J18" s="344"/>
-      <c r="K18" s="345"/>
-      <c r="L18" s="345"/>
+        <v>93</v>
+      </c>
+      <c r="J18" s="304"/>
+      <c r="K18" s="305"/>
+      <c r="L18" s="305"/>
       <c r="M18" s="47"/>
-      <c r="N18" s="327" t="s">
-        <v>139</v>
-      </c>
-      <c r="O18" s="327"/>
+      <c r="N18" s="308" t="s">
+        <v>132</v>
+      </c>
+      <c r="O18" s="308"/>
       <c r="P18" s="47"/>
-      <c r="Q18" s="334" t="s">
-        <v>140</v>
-      </c>
-      <c r="R18" s="334"/>
+      <c r="Q18" s="309" t="s">
+        <v>133</v>
+      </c>
+      <c r="R18" s="309"/>
       <c r="S18" s="84"/>
-      <c r="T18" s="330"/>
+      <c r="T18" s="323"/>
       <c r="U18" s="74"/>
       <c r="V18" s="212" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="W18" s="220"/>
       <c r="X18" s="213" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="Y18" s="76"/>
-      <c r="Z18" s="331"/>
+      <c r="Z18" s="324"/>
       <c r="AA18" s="82"/>
       <c r="AB18" s="111" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="AC18" s="166" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AD18" s="101" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AE18" s="109" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AF18" s="1"/>
       <c r="AG18" s="106" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AH18" s="103" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AI18" s="170" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AJ18" s="105" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL18" s="310" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM18" s="310"/>
-      <c r="AN18" s="310"/>
+        <v>88</v>
+      </c>
+      <c r="AL18" s="291" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM18" s="291"/>
+      <c r="AN18" s="291"/>
       <c r="AO18" s="1"/>
     </row>
     <row r="19" spans="2:41" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="52" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C19" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="344"/>
-      <c r="E19" s="345"/>
-      <c r="F19" s="345"/>
+        <v>95</v>
+      </c>
+      <c r="D19" s="304"/>
+      <c r="E19" s="305"/>
+      <c r="F19" s="305"/>
       <c r="G19" s="39"/>
       <c r="H19" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="I19" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="J19" s="344"/>
-      <c r="K19" s="345"/>
-      <c r="L19" s="345"/>
+      <c r="J19" s="304"/>
+      <c r="K19" s="305"/>
+      <c r="L19" s="305"/>
       <c r="M19" s="21"/>
       <c r="N19" s="116" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="O19" s="117" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="P19" s="21"/>
       <c r="Q19" s="118" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="R19" s="119" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="S19" s="84"/>
-      <c r="T19" s="330"/>
+      <c r="T19" s="323"/>
       <c r="U19" s="74"/>
       <c r="V19" s="209" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="W19" s="220"/>
       <c r="X19" s="211" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="Y19" s="76"/>
-      <c r="Z19" s="331"/>
+      <c r="Z19" s="324"/>
       <c r="AA19" s="82"/>
       <c r="AB19" s="168" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AC19" s="75" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AD19" s="102" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AE19" s="110" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AF19" s="1"/>
       <c r="AG19" s="107" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AH19" s="104" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI19" s="79" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ19" s="171" t="s">
-        <v>185</v>
-      </c>
-      <c r="AL19" s="310" t="s">
-        <v>129</v>
-      </c>
-      <c r="AM19" s="310"/>
-      <c r="AN19" s="310"/>
+        <v>177</v>
+      </c>
+      <c r="AL19" s="291" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM19" s="291"/>
+      <c r="AN19" s="291"/>
       <c r="AO19" s="1"/>
     </row>
     <row r="20" spans="2:41" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="57" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="344"/>
-      <c r="E20" s="345"/>
-      <c r="F20" s="345"/>
+        <v>70</v>
+      </c>
+      <c r="D20" s="304"/>
+      <c r="E20" s="305"/>
+      <c r="F20" s="305"/>
       <c r="G20" s="39"/>
       <c r="H20" s="57" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="I20" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="J20" s="344"/>
-      <c r="K20" s="345"/>
-      <c r="L20" s="345"/>
+        <v>102</v>
+      </c>
+      <c r="J20" s="304"/>
+      <c r="K20" s="305"/>
+      <c r="L20" s="305"/>
       <c r="M20" s="21"/>
       <c r="N20" s="68" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="O20" s="42" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="P20" s="21"/>
       <c r="Q20" s="69" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="R20" s="70" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="S20" s="84"/>
-      <c r="T20" s="330"/>
+      <c r="T20" s="323"/>
       <c r="U20" s="74"/>
       <c r="V20" s="212" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="W20" s="220"/>
       <c r="X20" s="213" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="Y20" s="76"/>
-      <c r="Z20" s="331"/>
+      <c r="Z20" s="324"/>
       <c r="AA20" s="82"/>
       <c r="AB20" s="106" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AC20" s="103"/>
       <c r="AD20" s="79"/>
       <c r="AE20" s="171" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AF20" s="1"/>
       <c r="AG20" s="168" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AH20" s="75"/>
       <c r="AI20" s="101"/>
       <c r="AJ20" s="109" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AL20" s="21"/>
       <c r="AM20" s="21"/>
@@ -21031,73 +20708,73 @@
     </row>
     <row r="21" spans="2:41" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="52" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C21" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="344"/>
-      <c r="E21" s="345"/>
-      <c r="F21" s="345"/>
+        <v>93</v>
+      </c>
+      <c r="D21" s="304"/>
+      <c r="E21" s="305"/>
+      <c r="F21" s="305"/>
       <c r="G21" s="39"/>
       <c r="H21" s="52" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="I21" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="J21" s="304"/>
+      <c r="K21" s="305"/>
+      <c r="L21" s="305"/>
+      <c r="N21" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="O21" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q21" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="R21" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="J21" s="344"/>
-      <c r="K21" s="345"/>
-      <c r="L21" s="345"/>
-      <c r="N21" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="O21" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q21" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="R21" s="59" t="s">
-        <v>93</v>
-      </c>
       <c r="S21" s="84"/>
-      <c r="T21" s="330"/>
+      <c r="T21" s="323"/>
       <c r="U21" s="74"/>
       <c r="V21" s="209" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="W21" s="220"/>
       <c r="X21" s="211" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="Y21" s="76"/>
-      <c r="Z21" s="331"/>
+      <c r="Z21" s="324"/>
       <c r="AA21" s="82"/>
       <c r="AB21" s="107" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AC21" s="104" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AD21" s="167" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AE21" s="108" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="AF21" s="1"/>
       <c r="AG21" s="112" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="AH21" s="173" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AI21" s="102" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AJ21" s="110" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AL21" s="21"/>
       <c r="AM21" s="21"/>
@@ -21106,48 +20783,48 @@
     </row>
     <row r="22" spans="2:41" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="57" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="344"/>
-      <c r="E22" s="345"/>
-      <c r="F22" s="345"/>
+        <v>116</v>
+      </c>
+      <c r="D22" s="304"/>
+      <c r="E22" s="305"/>
+      <c r="F22" s="305"/>
       <c r="G22" s="39"/>
       <c r="H22" s="57" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="I22" s="53" t="s">
-        <v>115</v>
-      </c>
-      <c r="J22" s="344"/>
-      <c r="K22" s="345"/>
-      <c r="L22" s="345"/>
+        <v>108</v>
+      </c>
+      <c r="J22" s="304"/>
+      <c r="K22" s="305"/>
+      <c r="L22" s="305"/>
       <c r="N22" s="62" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="O22" s="40" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="Q22" s="64" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="R22" s="63" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="S22" s="36"/>
-      <c r="T22" s="330"/>
+      <c r="T22" s="323"/>
       <c r="U22" s="74"/>
       <c r="V22" s="212" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="W22" s="220"/>
       <c r="X22" s="213" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="Y22" s="76"/>
-      <c r="Z22" s="331"/>
+      <c r="Z22" s="324"/>
       <c r="AA22" s="82"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
@@ -21165,72 +20842,72 @@
     </row>
     <row r="23" spans="2:41" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="54" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C23" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" s="344"/>
-      <c r="E23" s="345"/>
-      <c r="F23" s="345"/>
+        <v>96</v>
+      </c>
+      <c r="D23" s="304"/>
+      <c r="E23" s="305"/>
+      <c r="F23" s="305"/>
       <c r="G23" s="39"/>
       <c r="H23" s="54" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="I23" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="J23" s="344"/>
-      <c r="K23" s="345"/>
-      <c r="L23" s="345"/>
+        <v>112</v>
+      </c>
+      <c r="J23" s="304"/>
+      <c r="K23" s="305"/>
+      <c r="L23" s="305"/>
       <c r="N23" s="43" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="O23" s="61" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="Q23" s="60" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="R23" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="T23" s="330"/>
+        <v>96</v>
+      </c>
+      <c r="T23" s="323"/>
       <c r="U23" s="74"/>
       <c r="V23" s="209" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W23" s="220"/>
       <c r="X23" s="211" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="Y23" s="76"/>
-      <c r="Z23" s="331"/>
+      <c r="Z23" s="324"/>
       <c r="AA23" s="82"/>
       <c r="AB23" s="111" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="AC23" s="166" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AD23" s="101" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AE23" s="109" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AF23" s="1"/>
       <c r="AG23" s="106" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AH23" s="103" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AI23" s="170" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AJ23" s="105" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="AO23" s="1"/>
     </row>
@@ -21239,46 +20916,46 @@
       <c r="K24" s="21"/>
       <c r="L24" s="21"/>
       <c r="N24" s="62" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="O24" s="40" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="Q24" s="64" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="R24" s="63" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="S24" s="1"/>
-      <c r="T24" s="330"/>
+      <c r="T24" s="323"/>
       <c r="U24" s="74"/>
       <c r="V24" s="212" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="W24" s="220"/>
       <c r="X24" s="213" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="Y24" s="76"/>
-      <c r="Z24" s="331"/>
+      <c r="Z24" s="324"/>
       <c r="AA24" s="82"/>
       <c r="AB24" s="168" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AC24" s="75"/>
       <c r="AD24" s="102"/>
       <c r="AE24" s="110" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AF24" s="1"/>
       <c r="AG24" s="107" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AH24" s="104"/>
       <c r="AI24" s="79"/>
       <c r="AJ24" s="171" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="2:41" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -21287,260 +20964,260 @@
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
-      <c r="H25" s="332" t="s">
-        <v>148</v>
-      </c>
-      <c r="I25" s="332"/>
-      <c r="J25" s="332"/>
-      <c r="K25" s="332"/>
-      <c r="L25" s="332"/>
+      <c r="H25" s="321" t="s">
+        <v>141</v>
+      </c>
+      <c r="I25" s="321"/>
+      <c r="J25" s="321"/>
+      <c r="K25" s="321"/>
+      <c r="L25" s="321"/>
       <c r="N25" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="O25" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q25" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="R25" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="O25" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q25" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="R25" s="59" t="s">
-        <v>111</v>
-      </c>
       <c r="S25" s="1"/>
-      <c r="T25" s="330"/>
+      <c r="T25" s="323"/>
       <c r="U25" s="74"/>
       <c r="V25" s="209" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="W25" s="220"/>
       <c r="X25" s="211" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="Y25" s="76"/>
-      <c r="Z25" s="331"/>
+      <c r="Z25" s="324"/>
       <c r="AA25" s="82"/>
       <c r="AB25" s="106" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AC25" s="103" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AD25" s="79" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AE25" s="171" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AF25" s="1"/>
       <c r="AG25" s="168" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AH25" s="75" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI25" s="101" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ25" s="109" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="2:41" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" s="335" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" s="336"/>
-      <c r="E26" s="335" t="s">
-        <v>128</v>
-      </c>
-      <c r="F26" s="337"/>
-      <c r="H26" s="332"/>
-      <c r="I26" s="332"/>
-      <c r="J26" s="332"/>
-      <c r="K26" s="332"/>
-      <c r="L26" s="332"/>
+        <v>119</v>
+      </c>
+      <c r="C26" s="310" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="311"/>
+      <c r="E26" s="310" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="312"/>
+      <c r="H26" s="321"/>
+      <c r="I26" s="321"/>
+      <c r="J26" s="321"/>
+      <c r="K26" s="321"/>
+      <c r="L26" s="321"/>
       <c r="N26" s="62" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="O26" s="40" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="Q26" s="64" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="R26" s="63" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="S26" s="1"/>
-      <c r="T26" s="330"/>
+      <c r="T26" s="323"/>
       <c r="U26" s="80"/>
       <c r="V26" s="221" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="W26" s="220"/>
       <c r="X26" s="222" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="Y26" s="78"/>
-      <c r="Z26" s="331"/>
+      <c r="Z26" s="324"/>
       <c r="AA26" s="82"/>
       <c r="AB26" s="107" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AC26" s="104" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AD26" s="167" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AE26" s="108" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="AF26" s="1"/>
       <c r="AG26" s="112" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="AH26" s="173" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AI26" s="102" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AJ26" s="110" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="2:41" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" s="338">
+        <v>123</v>
+      </c>
+      <c r="C27" s="313">
         <v>0.8</v>
       </c>
-      <c r="D27" s="339"/>
-      <c r="E27" s="338">
+      <c r="D27" s="314"/>
+      <c r="E27" s="313">
         <v>100</v>
       </c>
-      <c r="F27" s="340"/>
-      <c r="H27" s="332"/>
-      <c r="I27" s="332"/>
-      <c r="J27" s="332"/>
-      <c r="K27" s="332"/>
-      <c r="L27" s="332"/>
+      <c r="F27" s="315"/>
+      <c r="H27" s="321"/>
+      <c r="I27" s="321"/>
+      <c r="J27" s="321"/>
+      <c r="K27" s="321"/>
+      <c r="L27" s="321"/>
       <c r="N27" s="43" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O27" s="61" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="Q27" s="60" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="R27" s="59" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S27" s="85"/>
-      <c r="U27" s="232" t="s">
-        <v>69</v>
-      </c>
-      <c r="V27" s="231"/>
+      <c r="U27" s="232"/>
+      <c r="V27" s="231" t="s">
+        <v>62</v>
+      </c>
       <c r="W27" s="227"/>
-      <c r="X27" s="230"/>
-      <c r="Y27" s="232" t="s">
-        <v>68</v>
-      </c>
+      <c r="X27" s="230" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y27" s="232"/>
       <c r="AA27" s="82"/>
       <c r="AK27" s="47"/>
     </row>
     <row r="28" spans="2:41" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="341">
+        <v>124</v>
+      </c>
+      <c r="C28" s="316">
         <v>1</v>
       </c>
-      <c r="D28" s="342"/>
-      <c r="E28" s="341">
+      <c r="D28" s="317"/>
+      <c r="E28" s="316">
         <v>180</v>
       </c>
-      <c r="F28" s="343"/>
-      <c r="H28" s="332"/>
-      <c r="I28" s="332"/>
-      <c r="J28" s="332"/>
-      <c r="K28" s="332"/>
-      <c r="L28" s="332"/>
+      <c r="F28" s="318"/>
+      <c r="H28" s="321"/>
+      <c r="I28" s="321"/>
+      <c r="J28" s="321"/>
+      <c r="K28" s="321"/>
+      <c r="L28" s="321"/>
       <c r="N28" s="62" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O28" s="40" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Q28" s="64" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="R28" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="V28" s="325" t="s">
+        <v>90</v>
+      </c>
+      <c r="V28" s="327" t="s">
+        <v>66</v>
+      </c>
+      <c r="W28" s="327"/>
+      <c r="X28" s="327"/>
+      <c r="AB28" s="325" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC28" s="325"/>
+      <c r="AD28" s="325"/>
+      <c r="AE28" s="325"/>
+      <c r="AF28" s="325"/>
+      <c r="AG28" s="325"/>
+      <c r="AH28" s="325"/>
+      <c r="AI28" s="325"/>
+      <c r="AJ28" s="325"/>
+    </row>
+    <row r="29" spans="2:41" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="307" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="307"/>
+      <c r="D29" s="307"/>
+      <c r="E29" s="307"/>
+      <c r="F29" s="307"/>
+      <c r="H29" s="321"/>
+      <c r="I29" s="321"/>
+      <c r="J29" s="321"/>
+      <c r="K29" s="321"/>
+      <c r="L29" s="321"/>
+      <c r="N29" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="O29" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="W28" s="325"/>
-      <c r="X28" s="325"/>
-      <c r="AB28" s="323" t="s">
-        <v>189</v>
-      </c>
-      <c r="AC28" s="323"/>
-      <c r="AD28" s="323"/>
-      <c r="AE28" s="323"/>
-      <c r="AF28" s="323"/>
-      <c r="AG28" s="323"/>
-      <c r="AH28" s="323"/>
-      <c r="AI28" s="323"/>
-      <c r="AJ28" s="323"/>
-    </row>
-    <row r="29" spans="2:41" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="333" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" s="333"/>
-      <c r="D29" s="333"/>
-      <c r="E29" s="333"/>
-      <c r="F29" s="333"/>
-      <c r="H29" s="332"/>
-      <c r="I29" s="332"/>
-      <c r="J29" s="332"/>
-      <c r="K29" s="332"/>
-      <c r="L29" s="332"/>
-      <c r="N29" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="O29" s="67" t="s">
-        <v>80</v>
-      </c>
       <c r="Q29" s="66" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="R29" s="65" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="S29" s="36"/>
-      <c r="V29" s="326"/>
-      <c r="W29" s="326"/>
-      <c r="X29" s="326"/>
-      <c r="AB29" s="323" t="s">
-        <v>188</v>
-      </c>
-      <c r="AC29" s="323"/>
-      <c r="AD29" s="323"/>
-      <c r="AE29" s="323"/>
-      <c r="AF29" s="323"/>
-      <c r="AG29" s="323"/>
-      <c r="AH29" s="323"/>
-      <c r="AI29" s="323"/>
-      <c r="AJ29" s="323"/>
+      <c r="V29" s="328"/>
+      <c r="W29" s="328"/>
+      <c r="X29" s="328"/>
+      <c r="AB29" s="325" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC29" s="325"/>
+      <c r="AD29" s="325"/>
+      <c r="AE29" s="325"/>
+      <c r="AF29" s="325"/>
+      <c r="AG29" s="325"/>
+      <c r="AH29" s="325"/>
+      <c r="AI29" s="325"/>
+      <c r="AJ29" s="325"/>
     </row>
     <row r="30" spans="2:41" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S30" s="1"/>
@@ -21578,11 +21255,21 @@
     <row r="41" spans="19:19" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D3:F4"/>
-    <mergeCell ref="J3:L7"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="AB28:AJ28"/>
+    <mergeCell ref="AB29:AJ29"/>
+    <mergeCell ref="AL3:AN3"/>
+    <mergeCell ref="AB3:AJ3"/>
+    <mergeCell ref="V28:X29"/>
+    <mergeCell ref="V2:X3"/>
+    <mergeCell ref="T5:T26"/>
+    <mergeCell ref="Z5:Z26"/>
+    <mergeCell ref="AL15:AN15"/>
+    <mergeCell ref="AL4:AN12"/>
+    <mergeCell ref="AL17:AN17"/>
+    <mergeCell ref="AL18:AN18"/>
+    <mergeCell ref="AB4:AJ5"/>
+    <mergeCell ref="AB16:AJ17"/>
+    <mergeCell ref="AL19:AN19"/>
     <mergeCell ref="B29:F29"/>
     <mergeCell ref="N18:O18"/>
     <mergeCell ref="Q18:R18"/>
@@ -21596,21 +21283,11 @@
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="J10:L23"/>
     <mergeCell ref="H25:L29"/>
-    <mergeCell ref="T5:T26"/>
-    <mergeCell ref="Z5:Z26"/>
-    <mergeCell ref="AL15:AN15"/>
-    <mergeCell ref="AL4:AN12"/>
-    <mergeCell ref="AL17:AN17"/>
-    <mergeCell ref="AL18:AN18"/>
-    <mergeCell ref="AB4:AJ5"/>
-    <mergeCell ref="AB16:AJ17"/>
-    <mergeCell ref="AL19:AN19"/>
-    <mergeCell ref="AB28:AJ28"/>
-    <mergeCell ref="AB29:AJ29"/>
-    <mergeCell ref="AL3:AN3"/>
-    <mergeCell ref="AB3:AJ3"/>
-    <mergeCell ref="V28:X29"/>
-    <mergeCell ref="V2:X3"/>
+    <mergeCell ref="D3:F4"/>
+    <mergeCell ref="J3:L7"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="44" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -21618,647 +21295,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3A725E-0030-451F-80DF-7B1B38CDE335}">
-  <dimension ref="B3:AT30"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="U1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="AN16" sqref="AN16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="22" max="22" width="2.6328125" customWidth="1"/>
-    <col min="23" max="32" width="9.6328125" customWidth="1"/>
-    <col min="33" max="34" width="2.6328125" customWidth="1"/>
-    <col min="35" max="44" width="9.6328125" customWidth="1"/>
-    <col min="45" max="45" width="2.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:46" x14ac:dyDescent="0.35">
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="327" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="327"/>
-      <c r="F3" s="327"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-    </row>
-    <row r="4" spans="2:46" ht="16" x14ac:dyDescent="0.4">
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="328"/>
-      <c r="E4" s="328"/>
-      <c r="F4" s="328"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="AF4" s="328" t="s">
-        <v>139</v>
-      </c>
-      <c r="AG4" s="351"/>
-      <c r="AH4" s="351"/>
-      <c r="AI4" s="351"/>
-    </row>
-    <row r="5" spans="2:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="37"/>
-      <c r="C5" s="233" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="228" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="223"/>
-      <c r="F5" s="229" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="37"/>
-      <c r="U5" s="349" t="s">
-        <v>72</v>
-      </c>
-      <c r="W5" s="294"/>
-      <c r="X5" s="292"/>
-      <c r="Y5" s="292"/>
-      <c r="Z5" s="292"/>
-      <c r="AA5" s="292"/>
-      <c r="AB5" s="292"/>
-      <c r="AC5" s="292"/>
-      <c r="AD5" s="292"/>
-      <c r="AE5" s="292"/>
-      <c r="AF5" s="292"/>
-      <c r="AG5" s="293"/>
-      <c r="AH5" s="292"/>
-      <c r="AI5" s="292"/>
-      <c r="AJ5" s="292"/>
-      <c r="AK5" s="292"/>
-      <c r="AL5" s="292"/>
-      <c r="AM5" s="292"/>
-      <c r="AN5" s="292"/>
-      <c r="AO5" s="292"/>
-      <c r="AP5" s="292"/>
-      <c r="AQ5" s="292"/>
-      <c r="AR5" s="293"/>
-      <c r="AT5" s="350" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="2:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="329" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="207" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="210"/>
-      <c r="F6" s="208" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="73"/>
-      <c r="H6" s="331" t="s">
-        <v>140</v>
-      </c>
-      <c r="U6" s="349"/>
-      <c r="V6" s="287"/>
-      <c r="W6" s="275" t="s">
-        <v>76</v>
-      </c>
-      <c r="X6" s="276" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y6" s="277" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z6" s="276" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA6" s="277" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB6" s="276" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC6" s="277" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD6" s="276" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE6" s="277" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF6" s="278" t="s">
-        <v>119</v>
-      </c>
-      <c r="AG6" s="290"/>
-      <c r="AH6" s="301"/>
-      <c r="AI6" s="285" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ6" s="277" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK6" s="276" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL6" s="277" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM6" s="276" t="s">
-        <v>108</v>
-      </c>
-      <c r="AN6" s="277" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO6" s="276" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP6" s="277" t="s">
-        <v>110</v>
-      </c>
-      <c r="AQ6" s="276" t="s">
-        <v>118</v>
-      </c>
-      <c r="AR6" s="286" t="s">
-        <v>116</v>
-      </c>
-      <c r="AS6" s="300"/>
-      <c r="AT6" s="350"/>
-    </row>
-    <row r="7" spans="2:46" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="330"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="209" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="210"/>
-      <c r="F7" s="211" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="76"/>
-      <c r="H7" s="331"/>
-      <c r="U7" s="349"/>
-      <c r="V7" s="288"/>
-      <c r="W7" s="302"/>
-      <c r="X7" s="302"/>
-      <c r="Y7" s="302"/>
-      <c r="Z7" s="302"/>
-      <c r="AA7" s="302"/>
-      <c r="AB7" s="302"/>
-      <c r="AC7" s="302"/>
-      <c r="AD7" s="302"/>
-      <c r="AE7" s="302"/>
-      <c r="AF7" s="302"/>
-      <c r="AG7" s="303"/>
-      <c r="AH7" s="301"/>
-      <c r="AI7" s="304"/>
-      <c r="AJ7" s="304"/>
-      <c r="AK7" s="304"/>
-      <c r="AL7" s="304"/>
-      <c r="AM7" s="304"/>
-      <c r="AN7" s="304"/>
-      <c r="AO7" s="304"/>
-      <c r="AP7" s="304"/>
-      <c r="AQ7" s="304"/>
-      <c r="AR7" s="304"/>
-      <c r="AS7" s="298"/>
-      <c r="AT7" s="350"/>
-    </row>
-    <row r="8" spans="2:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="330"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="212" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="210"/>
-      <c r="F8" s="213" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="76"/>
-      <c r="H8" s="331"/>
-      <c r="U8" s="349"/>
-      <c r="V8" s="287"/>
-      <c r="W8" s="305"/>
-      <c r="X8" s="305"/>
-      <c r="Y8" s="305"/>
-      <c r="Z8" s="305"/>
-      <c r="AA8" s="305"/>
-      <c r="AB8" s="305"/>
-      <c r="AC8" s="305"/>
-      <c r="AD8" s="305"/>
-      <c r="AE8" s="305"/>
-      <c r="AF8" s="305"/>
-      <c r="AG8" s="306"/>
-      <c r="AH8" s="307"/>
-      <c r="AI8" s="308"/>
-      <c r="AJ8" s="308"/>
-      <c r="AK8" s="308"/>
-      <c r="AL8" s="308"/>
-      <c r="AM8" s="308"/>
-      <c r="AN8" s="308"/>
-      <c r="AO8" s="308"/>
-      <c r="AP8" s="308"/>
-      <c r="AQ8" s="308"/>
-      <c r="AR8" s="308"/>
-      <c r="AS8" s="300"/>
-      <c r="AT8" s="350"/>
-    </row>
-    <row r="9" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="330"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="209" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="210"/>
-      <c r="F9" s="211" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" s="76"/>
-      <c r="H9" s="331"/>
-      <c r="U9" s="349"/>
-      <c r="V9" s="289"/>
-      <c r="W9" s="283" t="s">
-        <v>74</v>
-      </c>
-      <c r="X9" s="281" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y9" s="280" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z9" s="281" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA9" s="280" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB9" s="281" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC9" s="280" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD9" s="281" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE9" s="280" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF9" s="284" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG9" s="291"/>
-      <c r="AH9" s="309"/>
-      <c r="AI9" s="279" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ9" s="280" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK9" s="281" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL9" s="280" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM9" s="281" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN9" s="280" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO9" s="281" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP9" s="280" t="s">
-        <v>106</v>
-      </c>
-      <c r="AQ9" s="281" t="s">
-        <v>115</v>
-      </c>
-      <c r="AR9" s="282" t="s">
-        <v>80</v>
-      </c>
-      <c r="AS9" s="299"/>
-      <c r="AT9" s="350"/>
-    </row>
-    <row r="10" spans="2:46" x14ac:dyDescent="0.35">
-      <c r="B10" s="330"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="212" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="210"/>
-      <c r="F10" s="213" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" s="76"/>
-      <c r="H10" s="331"/>
-      <c r="U10" s="349"/>
-      <c r="W10" s="295"/>
-      <c r="X10" s="296"/>
-      <c r="Y10" s="296"/>
-      <c r="Z10" s="296"/>
-      <c r="AA10" s="296"/>
-      <c r="AB10" s="296"/>
-      <c r="AC10" s="296"/>
-      <c r="AD10" s="296"/>
-      <c r="AE10" s="296"/>
-      <c r="AF10" s="296"/>
-      <c r="AG10" s="297"/>
-      <c r="AH10" s="296"/>
-      <c r="AI10" s="296"/>
-      <c r="AJ10" s="296"/>
-      <c r="AK10" s="296"/>
-      <c r="AL10" s="296"/>
-      <c r="AM10" s="296"/>
-      <c r="AN10" s="296"/>
-      <c r="AO10" s="296"/>
-      <c r="AP10" s="296"/>
-      <c r="AQ10" s="296"/>
-      <c r="AR10" s="297"/>
-      <c r="AT10" s="350"/>
-    </row>
-    <row r="11" spans="2:46" ht="16" x14ac:dyDescent="0.35">
-      <c r="B11" s="330"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="209" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" s="210"/>
-      <c r="F11" s="211" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" s="76"/>
-      <c r="H11" s="331"/>
-      <c r="AF11" s="325" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG11" s="325"/>
-      <c r="AH11" s="325"/>
-      <c r="AI11" s="325"/>
-    </row>
-    <row r="12" spans="2:46" x14ac:dyDescent="0.35">
-      <c r="B12" s="330"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="212" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" s="210"/>
-      <c r="F12" s="213" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="76"/>
-      <c r="H12" s="331"/>
-    </row>
-    <row r="13" spans="2:46" x14ac:dyDescent="0.35">
-      <c r="B13" s="330"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="209" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" s="210"/>
-      <c r="F13" s="211" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="76"/>
-      <c r="H13" s="331"/>
-    </row>
-    <row r="14" spans="2:46" x14ac:dyDescent="0.35">
-      <c r="B14" s="330"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="212" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="210"/>
-      <c r="F14" s="213" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="76"/>
-      <c r="H14" s="331"/>
-    </row>
-    <row r="15" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="330"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="214" t="s">
-        <v>117</v>
-      </c>
-      <c r="E15" s="210"/>
-      <c r="F15" s="215" t="s">
-        <v>119</v>
-      </c>
-      <c r="G15" s="76"/>
-      <c r="H15" s="331"/>
-    </row>
-    <row r="16" spans="2:46" x14ac:dyDescent="0.35">
-      <c r="B16" s="330"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="224"/>
-      <c r="E16" s="225"/>
-      <c r="F16" s="226"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="331"/>
-    </row>
-    <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="330"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="216"/>
-      <c r="E17" s="220"/>
-      <c r="F17" s="217"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="331"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B18" s="330"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="218" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="220"/>
-      <c r="F18" s="219" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" s="76"/>
-      <c r="H18" s="331"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B19" s="330"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="212" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="220"/>
-      <c r="F19" s="213" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19" s="76"/>
-      <c r="H19" s="331"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B20" s="330"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="209" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="220"/>
-      <c r="F20" s="211" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="76"/>
-      <c r="H20" s="331"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B21" s="330"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="212" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="220"/>
-      <c r="F21" s="213" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="76"/>
-      <c r="H21" s="331"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B22" s="330"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="209" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="220"/>
-      <c r="F22" s="211" t="s">
-        <v>108</v>
-      </c>
-      <c r="G22" s="76"/>
-      <c r="H22" s="331"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B23" s="330"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="212" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="220"/>
-      <c r="F23" s="213" t="s">
-        <v>101</v>
-      </c>
-      <c r="G23" s="76"/>
-      <c r="H23" s="331"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B24" s="330"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="209" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" s="220"/>
-      <c r="F24" s="211" t="s">
-        <v>114</v>
-      </c>
-      <c r="G24" s="76"/>
-      <c r="H24" s="331"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B25" s="330"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="212" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25" s="220"/>
-      <c r="F25" s="213" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25" s="76"/>
-      <c r="H25" s="331"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B26" s="330"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="209" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" s="220"/>
-      <c r="F26" s="211" t="s">
-        <v>118</v>
-      </c>
-      <c r="G26" s="76"/>
-      <c r="H26" s="331"/>
-    </row>
-    <row r="27" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="330"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="221" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="220"/>
-      <c r="F27" s="222" t="s">
-        <v>116</v>
-      </c>
-      <c r="G27" s="78"/>
-      <c r="H27" s="331"/>
-    </row>
-    <row r="28" spans="2:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="B28" s="37"/>
-      <c r="C28" s="232" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="231"/>
-      <c r="E28" s="227"/>
-      <c r="F28" s="230"/>
-      <c r="G28" s="232" t="s">
-        <v>68</v>
-      </c>
-      <c r="H28" s="37"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="325" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="325"/>
-      <c r="F29" s="325"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="326"/>
-      <c r="E30" s="326"/>
-      <c r="F30" s="326"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="D29:F30"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="U5:U10"/>
-    <mergeCell ref="AT5:AT10"/>
-    <mergeCell ref="D3:F4"/>
-    <mergeCell ref="B6:B27"/>
-    <mergeCell ref="H6:H27"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE3DEC1-8A52-4F6E-BFF3-45BA2A41D962}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:AC43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB29" sqref="AB29"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC22" sqref="AC22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -22274,63 +21318,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:29" ht="16" x14ac:dyDescent="0.35">
-      <c r="B2" s="365" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="365"/>
-      <c r="D2" s="365"/>
-      <c r="E2" s="365"/>
-      <c r="F2" s="365"/>
-      <c r="N2" s="348" t="s">
-        <v>169</v>
-      </c>
-      <c r="O2" s="348"/>
-      <c r="P2" s="348"/>
-      <c r="Q2" s="348"/>
-      <c r="R2" s="348"/>
-      <c r="T2" s="348" t="s">
-        <v>168</v>
-      </c>
-      <c r="U2" s="348"/>
-      <c r="V2" s="348"/>
-      <c r="W2" s="348"/>
-      <c r="X2" s="348"/>
+      <c r="B2" s="332" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="332"/>
+      <c r="D2" s="332"/>
+      <c r="E2" s="332"/>
+      <c r="F2" s="332"/>
+      <c r="N2" s="306" t="s">
+        <v>162</v>
+      </c>
+      <c r="O2" s="306"/>
+      <c r="P2" s="306"/>
+      <c r="Q2" s="306"/>
+      <c r="R2" s="306"/>
+      <c r="T2" s="306" t="s">
+        <v>161</v>
+      </c>
+      <c r="U2" s="306"/>
+      <c r="V2" s="306"/>
+      <c r="W2" s="306"/>
+      <c r="X2" s="306"/>
     </row>
     <row r="3" spans="1:29" ht="14" thickBot="1" x14ac:dyDescent="0.4">
       <c r="H3" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I3" s="1">
         <v>20</v>
       </c>
-      <c r="N3" s="367" t="s">
-        <v>251</v>
-      </c>
-      <c r="O3" s="367"/>
-      <c r="P3" s="367"/>
-      <c r="Q3" s="367"/>
-      <c r="R3" s="367"/>
-      <c r="T3" s="367" t="s">
-        <v>254</v>
-      </c>
-      <c r="U3" s="367"/>
-      <c r="V3" s="367"/>
-      <c r="W3" s="367"/>
-      <c r="X3" s="367"/>
-      <c r="Z3" s="345" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA3" s="345"/>
-      <c r="AB3" s="345"/>
+      <c r="N3" s="334" t="s">
+        <v>241</v>
+      </c>
+      <c r="O3" s="334"/>
+      <c r="P3" s="334"/>
+      <c r="Q3" s="334"/>
+      <c r="R3" s="334"/>
+      <c r="T3" s="334" t="s">
+        <v>244</v>
+      </c>
+      <c r="U3" s="334"/>
+      <c r="V3" s="334"/>
+      <c r="W3" s="334"/>
+      <c r="X3" s="334"/>
+      <c r="Z3" s="321" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA3" s="321"/>
+      <c r="AB3" s="321"/>
     </row>
     <row r="4" spans="1:29" ht="14" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="26"/>
-      <c r="C4" s="366" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="360"/>
-      <c r="E4" s="360"/>
-      <c r="F4" s="360"/>
+      <c r="C4" s="333" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="331"/>
+      <c r="E4" s="331"/>
+      <c r="F4" s="331"/>
       <c r="H4" s="1" t="s">
         <v>4</v>
       </c>
@@ -22347,9 +21391,9 @@
       <c r="V4" s="20"/>
       <c r="W4" s="20"/>
       <c r="X4" s="22"/>
-      <c r="Z4" s="345"/>
-      <c r="AA4" s="345"/>
-      <c r="AB4" s="345"/>
+      <c r="Z4" s="321"/>
+      <c r="AA4" s="321"/>
+      <c r="AB4" s="321"/>
     </row>
     <row r="5" spans="1:29" ht="14" thickBot="1" x14ac:dyDescent="0.4">
       <c r="H5" s="1" t="s">
@@ -22358,44 +21402,44 @@
       <c r="I5" s="1">
         <v>20</v>
       </c>
-      <c r="Z5" s="345"/>
-      <c r="AA5" s="345"/>
-      <c r="AB5" s="345"/>
+      <c r="Z5" s="321"/>
+      <c r="AA5" s="321"/>
+      <c r="AB5" s="321"/>
       <c r="AC5" s="21"/>
     </row>
     <row r="6" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="268" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="360" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="360"/>
-      <c r="E6" s="360"/>
-      <c r="F6" s="360"/>
+      <c r="C6" s="331" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="331"/>
+      <c r="E6" s="331"/>
+      <c r="F6" s="331"/>
       <c r="H6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I6" s="1">
         <v>20</v>
       </c>
-      <c r="N6" s="361" t="s">
-        <v>191</v>
-      </c>
-      <c r="O6" s="362"/>
-      <c r="Q6" s="361" t="s">
-        <v>191</v>
-      </c>
-      <c r="R6" s="362"/>
-      <c r="T6" s="361" t="s">
-        <v>195</v>
-      </c>
-      <c r="U6" s="362"/>
+      <c r="N6" s="378" t="s">
+        <v>181</v>
+      </c>
+      <c r="O6" s="378"/>
+      <c r="Q6" s="378" t="s">
+        <v>181</v>
+      </c>
+      <c r="R6" s="378"/>
+      <c r="T6" s="378" t="s">
+        <v>185</v>
+      </c>
+      <c r="U6" s="378"/>
       <c r="V6" s="27"/>
-      <c r="W6" s="361" t="s">
-        <v>195</v>
-      </c>
-      <c r="X6" s="362"/>
+      <c r="W6" s="378" t="s">
+        <v>185</v>
+      </c>
+      <c r="X6" s="378"/>
       <c r="Z6" s="21"/>
       <c r="AA6" s="21"/>
       <c r="AB6" s="21"/>
@@ -22403,238 +21447,238 @@
     </row>
     <row r="7" spans="1:29" ht="14" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M7" s="28"/>
-      <c r="Z7" s="345" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA7" s="345"/>
-      <c r="AB7" s="345"/>
+      <c r="Z7" s="321" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA7" s="321"/>
+      <c r="AB7" s="321"/>
     </row>
     <row r="8" spans="1:29" ht="14" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="254" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="360" t="s">
+      <c r="C8" s="331" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="331"/>
+      <c r="E8" s="331"/>
+      <c r="F8" s="331"/>
+      <c r="N8" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="360"/>
-      <c r="E8" s="360"/>
-      <c r="F8" s="360"/>
-      <c r="N8" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="O8" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q8" s="29" t="s">
+      <c r="T8" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="U8" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="W8" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="X8" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="R8" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="T8" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="U8" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="W8" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="X8" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z8" s="345"/>
-      <c r="AA8" s="345"/>
-      <c r="AB8" s="345"/>
+      <c r="Z8" s="321"/>
+      <c r="AA8" s="321"/>
+      <c r="AB8" s="321"/>
     </row>
     <row r="9" spans="1:29" ht="14" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="Z9" s="345"/>
-      <c r="AA9" s="345"/>
-      <c r="AB9" s="345"/>
+      <c r="Z9" s="321"/>
+      <c r="AA9" s="321"/>
+      <c r="AB9" s="321"/>
     </row>
     <row r="10" spans="1:29" ht="14" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="257" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="360" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="360"/>
-      <c r="E10" s="360"/>
-      <c r="F10" s="360"/>
+        <v>35</v>
+      </c>
+      <c r="C10" s="331" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="331"/>
+      <c r="E10" s="331"/>
+      <c r="F10" s="331"/>
       <c r="N10" s="274" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O10" s="268" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="274" t="s">
+        <v>41</v>
+      </c>
+      <c r="R10" s="268" t="s">
+        <v>40</v>
+      </c>
+      <c r="T10" s="274" t="s">
+        <v>42</v>
+      </c>
+      <c r="U10" s="268" t="s">
         <v>43</v>
       </c>
-      <c r="Q10" s="274" t="s">
-        <v>44</v>
-      </c>
-      <c r="R10" s="268" t="s">
+      <c r="W10" s="274" t="s">
+        <v>42</v>
+      </c>
+      <c r="X10" s="268" t="s">
         <v>43</v>
-      </c>
-      <c r="T10" s="274" t="s">
-        <v>45</v>
-      </c>
-      <c r="U10" s="268" t="s">
-        <v>46</v>
-      </c>
-      <c r="W10" s="274" t="s">
-        <v>45</v>
-      </c>
-      <c r="X10" s="268" t="s">
-        <v>46</v>
       </c>
       <c r="Z10" s="27"/>
       <c r="AA10" s="27"/>
       <c r="AB10" s="32"/>
     </row>
     <row r="11" spans="1:29" ht="14" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="N11" s="360" t="s">
+      <c r="N11" s="331" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="331"/>
+      <c r="Q11" s="331" t="s">
+        <v>52</v>
+      </c>
+      <c r="R11" s="331"/>
+      <c r="T11" s="330" t="s">
+        <v>53</v>
+      </c>
+      <c r="U11" s="330"/>
+      <c r="W11" s="330" t="s">
+        <v>53</v>
+      </c>
+      <c r="X11" s="330"/>
+      <c r="Z11" s="321" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA11" s="321"/>
+      <c r="AB11" s="321"/>
+    </row>
+    <row r="12" spans="1:29" ht="14" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="335" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="335"/>
+      <c r="D12" s="335"/>
+      <c r="E12" s="335"/>
+      <c r="F12" s="335"/>
+      <c r="N12" s="254" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="255" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q12" s="254" t="s">
+        <v>42</v>
+      </c>
+      <c r="R12" s="255" t="s">
+        <v>164</v>
+      </c>
+      <c r="T12" s="254" t="s">
+        <v>41</v>
+      </c>
+      <c r="U12" s="255" t="s">
+        <v>40</v>
+      </c>
+      <c r="W12" s="254" t="s">
+        <v>41</v>
+      </c>
+      <c r="X12" s="255" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z12" s="321"/>
+      <c r="AA12" s="321"/>
+      <c r="AB12" s="321"/>
+    </row>
+    <row r="13" spans="1:29" ht="14" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N13" s="331" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" s="331"/>
+      <c r="Q13" s="331" t="s">
+        <v>55</v>
+      </c>
+      <c r="R13" s="331"/>
+      <c r="T13" s="331" t="s">
+        <v>56</v>
+      </c>
+      <c r="U13" s="331"/>
+      <c r="W13" s="331" t="s">
+        <v>56</v>
+      </c>
+      <c r="X13" s="331"/>
+      <c r="Z13" s="321"/>
+      <c r="AA13" s="321"/>
+      <c r="AB13" s="321"/>
+    </row>
+    <row r="14" spans="1:29" ht="14" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="336" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="336"/>
+      <c r="D14" s="336"/>
+      <c r="E14" s="336"/>
+      <c r="F14" s="336"/>
+      <c r="H14" s="337" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="337"/>
+      <c r="J14" s="337"/>
+      <c r="K14" s="337"/>
+      <c r="L14" s="337"/>
+      <c r="N14" s="262" t="s">
+        <v>164</v>
+      </c>
+      <c r="O14" s="257" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" s="262" t="s">
+        <v>164</v>
+      </c>
+      <c r="R14" s="257" t="s">
+        <v>42</v>
+      </c>
+      <c r="T14" s="262" t="s">
+        <v>40</v>
+      </c>
+      <c r="U14" s="257" t="s">
+        <v>41</v>
+      </c>
+      <c r="W14" s="262" t="s">
+        <v>40</v>
+      </c>
+      <c r="X14" s="257" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="14" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N15" s="331" t="s">
         <v>58</v>
       </c>
-      <c r="O11" s="360"/>
-      <c r="Q11" s="360" t="s">
+      <c r="O15" s="331"/>
+      <c r="Q15" s="331" t="s">
         <v>58</v>
       </c>
-      <c r="R11" s="360"/>
-      <c r="T11" s="364" t="s">
-        <v>59</v>
-      </c>
-      <c r="U11" s="364"/>
-      <c r="W11" s="364" t="s">
-        <v>59</v>
-      </c>
-      <c r="X11" s="364"/>
-      <c r="Z11" s="345" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA11" s="345"/>
-      <c r="AB11" s="345"/>
-    </row>
-    <row r="12" spans="1:29" ht="14" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="363" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="363"/>
-      <c r="D12" s="363"/>
-      <c r="E12" s="363"/>
-      <c r="F12" s="363"/>
-      <c r="N12" s="254" t="s">
-        <v>45</v>
-      </c>
-      <c r="O12" s="255" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q12" s="254" t="s">
-        <v>45</v>
-      </c>
-      <c r="R12" s="255" t="s">
-        <v>171</v>
-      </c>
-      <c r="T12" s="254" t="s">
-        <v>44</v>
-      </c>
-      <c r="U12" s="255" t="s">
-        <v>43</v>
-      </c>
-      <c r="W12" s="254" t="s">
-        <v>44</v>
-      </c>
-      <c r="X12" s="255" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z12" s="345"/>
-      <c r="AA12" s="345"/>
-      <c r="AB12" s="345"/>
-    </row>
-    <row r="13" spans="1:29" ht="14" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="N13" s="360" t="s">
-        <v>61</v>
-      </c>
-      <c r="O13" s="360"/>
-      <c r="Q13" s="360" t="s">
-        <v>61</v>
-      </c>
-      <c r="R13" s="360"/>
-      <c r="T13" s="360" t="s">
-        <v>62</v>
-      </c>
-      <c r="U13" s="360"/>
-      <c r="W13" s="360" t="s">
-        <v>62</v>
-      </c>
-      <c r="X13" s="360"/>
-      <c r="Z13" s="345"/>
-      <c r="AA13" s="345"/>
-      <c r="AB13" s="345"/>
-    </row>
-    <row r="14" spans="1:29" ht="14" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="358" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="358"/>
-      <c r="D14" s="358"/>
-      <c r="E14" s="358"/>
-      <c r="F14" s="358"/>
-      <c r="H14" s="359" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="359"/>
-      <c r="J14" s="359"/>
-      <c r="K14" s="359"/>
-      <c r="L14" s="359"/>
-      <c r="N14" s="262" t="s">
-        <v>171</v>
-      </c>
-      <c r="O14" s="257" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q14" s="262" t="s">
-        <v>171</v>
-      </c>
-      <c r="R14" s="257" t="s">
-        <v>45</v>
-      </c>
-      <c r="T14" s="262" t="s">
-        <v>43</v>
-      </c>
-      <c r="U14" s="257" t="s">
-        <v>44</v>
-      </c>
-      <c r="W14" s="262" t="s">
-        <v>43</v>
-      </c>
-      <c r="X14" s="257" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" ht="14" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="N15" s="360" t="s">
-        <v>65</v>
-      </c>
-      <c r="O15" s="360"/>
-      <c r="Q15" s="360" t="s">
-        <v>65</v>
-      </c>
-      <c r="R15" s="360"/>
-      <c r="T15" s="360" t="s">
-        <v>64</v>
-      </c>
-      <c r="U15" s="360"/>
-      <c r="W15" s="360" t="s">
-        <v>64</v>
-      </c>
-      <c r="X15" s="360"/>
-      <c r="Z15" s="345" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA15" s="345"/>
-      <c r="AB15" s="345"/>
-    </row>
-    <row r="16" spans="1:29" ht="14" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="352">
+      <c r="R15" s="331"/>
+      <c r="T15" s="331" t="s">
+        <v>57</v>
+      </c>
+      <c r="U15" s="331"/>
+      <c r="W15" s="331" t="s">
+        <v>57</v>
+      </c>
+      <c r="X15" s="331"/>
+      <c r="Z15" s="321" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA15" s="321"/>
+      <c r="AB15" s="321"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A16" s="338">
         <v>1</v>
       </c>
       <c r="B16" s="269" t="s">
@@ -22643,7 +21687,7 @@
       <c r="C16" s="270" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="353">
+      <c r="D16" s="339">
         <v>3</v>
       </c>
       <c r="E16" s="269" t="s">
@@ -22652,7 +21696,7 @@
       <c r="F16" s="270" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="352">
+      <c r="G16" s="338">
         <v>1</v>
       </c>
       <c r="H16" s="250" t="s">
@@ -22661,7 +21705,7 @@
       <c r="I16" s="251" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="353">
+      <c r="J16" s="339">
         <v>3</v>
       </c>
       <c r="K16" s="250" t="s">
@@ -22670,72 +21714,72 @@
       <c r="L16" s="251" t="s">
         <v>6</v>
       </c>
-      <c r="Z16" s="345"/>
-      <c r="AA16" s="345"/>
-      <c r="AB16" s="345"/>
+      <c r="Z16" s="321"/>
+      <c r="AA16" s="321"/>
+      <c r="AB16" s="321"/>
     </row>
     <row r="17" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="352"/>
+      <c r="A17" s="338"/>
       <c r="B17" s="271" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="272" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="353"/>
+      <c r="D17" s="339"/>
       <c r="E17" s="271" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="272" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="352"/>
+      <c r="G17" s="338"/>
       <c r="H17" s="252" t="s">
         <v>16</v>
       </c>
       <c r="I17" s="253" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="353"/>
+      <c r="J17" s="339"/>
       <c r="K17" s="252" t="s">
         <v>15</v>
       </c>
       <c r="L17" s="253" t="s">
         <v>16</v>
       </c>
-      <c r="N17" s="361" t="s">
-        <v>192</v>
-      </c>
-      <c r="O17" s="362"/>
+      <c r="N17" s="378" t="s">
+        <v>182</v>
+      </c>
+      <c r="O17" s="378"/>
       <c r="P17" s="27"/>
-      <c r="Q17" s="361" t="s">
-        <v>192</v>
-      </c>
-      <c r="R17" s="362"/>
-      <c r="T17" s="361" t="s">
-        <v>193</v>
-      </c>
-      <c r="U17" s="362"/>
-      <c r="W17" s="361" t="s">
-        <v>194</v>
-      </c>
-      <c r="X17" s="362"/>
-      <c r="Z17" s="345"/>
-      <c r="AA17" s="345"/>
-      <c r="AB17" s="345"/>
+      <c r="Q17" s="378" t="s">
+        <v>182</v>
+      </c>
+      <c r="R17" s="378"/>
+      <c r="T17" s="378" t="s">
+        <v>183</v>
+      </c>
+      <c r="U17" s="378"/>
+      <c r="W17" s="378" t="s">
+        <v>184</v>
+      </c>
+      <c r="X17" s="378"/>
+      <c r="Z17" s="321"/>
+      <c r="AA17" s="321"/>
+      <c r="AB17" s="321"/>
     </row>
     <row r="18" spans="1:28" ht="14" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:28" ht="14" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="352">
+      <c r="A19" s="338">
         <v>2</v>
       </c>
       <c r="B19" s="269" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="270" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="353">
+        <v>51</v>
+      </c>
+      <c r="D19" s="339">
         <v>4</v>
       </c>
       <c r="E19" s="269" t="s">
@@ -22744,16 +21788,16 @@
       <c r="F19" s="270" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="352">
+      <c r="G19" s="338">
         <v>2</v>
       </c>
       <c r="H19" s="250" t="s">
         <v>6</v>
       </c>
       <c r="I19" s="251" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" s="353">
+        <v>51</v>
+      </c>
+      <c r="J19" s="339">
         <v>4</v>
       </c>
       <c r="K19" s="250" t="s">
@@ -22763,188 +21807,188 @@
         <v>7</v>
       </c>
       <c r="N19" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q19" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="O19" s="29" t="s">
+      <c r="R19" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="Q19" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="R19" s="29" t="s">
-        <v>41</v>
-      </c>
       <c r="T19" s="31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U19" s="29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="W19" s="31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X19" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z19" s="345" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA19" s="345"/>
-      <c r="AB19" s="345"/>
+        <v>36</v>
+      </c>
+      <c r="Z19" s="321" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA19" s="321"/>
+      <c r="AB19" s="321"/>
     </row>
     <row r="20" spans="1:28" ht="14" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="352"/>
+      <c r="A20" s="338"/>
       <c r="B20" s="271" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="272" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="353"/>
+      <c r="D20" s="339"/>
       <c r="E20" s="271" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="272" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="352"/>
+      <c r="G20" s="338"/>
       <c r="H20" s="252" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="253" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="353"/>
+      <c r="J20" s="339"/>
       <c r="K20" s="252" t="s">
         <v>15</v>
       </c>
       <c r="L20" s="253" t="s">
         <v>16</v>
       </c>
-      <c r="Z20" s="345"/>
-      <c r="AA20" s="345"/>
-      <c r="AB20" s="345"/>
+      <c r="Z20" s="321"/>
+      <c r="AA20" s="321"/>
+      <c r="AB20" s="321"/>
     </row>
     <row r="21" spans="1:28" ht="14" thickBot="1" x14ac:dyDescent="0.4">
       <c r="N21" s="268" t="s">
+        <v>40</v>
+      </c>
+      <c r="O21" s="273" t="s">
         <v>43</v>
       </c>
-      <c r="O21" s="273" t="s">
-        <v>46</v>
-      </c>
       <c r="Q21" s="268" t="s">
+        <v>40</v>
+      </c>
+      <c r="R21" s="273" t="s">
         <v>43</v>
       </c>
-      <c r="R21" s="273" t="s">
-        <v>46</v>
-      </c>
       <c r="T21" s="268" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="U21" s="273" t="s">
+        <v>42</v>
+      </c>
+      <c r="W21" s="268" t="s">
+        <v>43</v>
+      </c>
+      <c r="X21" s="273" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z21" s="321"/>
+      <c r="AA21" s="321"/>
+      <c r="AB21" s="321"/>
+    </row>
+    <row r="22" spans="1:28" ht="14" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N22" s="330" t="s">
+        <v>44</v>
+      </c>
+      <c r="O22" s="330"/>
+      <c r="Q22" s="330" t="s">
+        <v>44</v>
+      </c>
+      <c r="R22" s="330"/>
+      <c r="T22" s="331" t="s">
         <v>45</v>
       </c>
-      <c r="W21" s="268" t="s">
-        <v>46</v>
-      </c>
-      <c r="X21" s="273" t="s">
+      <c r="U22" s="331"/>
+      <c r="W22" s="331" t="s">
         <v>45</v>
       </c>
-      <c r="Z21" s="345"/>
-      <c r="AA21" s="345"/>
-      <c r="AB21" s="345"/>
-    </row>
-    <row r="22" spans="1:28" ht="14" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="N22" s="364" t="s">
+      <c r="X22" s="331"/>
+    </row>
+    <row r="23" spans="1:28" ht="14" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="341" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="341"/>
+      <c r="D23" s="341"/>
+      <c r="E23" s="341"/>
+      <c r="F23" s="341"/>
+      <c r="H23" s="305" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" s="305"/>
+      <c r="J23" s="305"/>
+      <c r="K23" s="305"/>
+      <c r="L23" s="305"/>
+      <c r="N23" s="256" t="s">
+        <v>43</v>
+      </c>
+      <c r="O23" s="254" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q23" s="256" t="s">
+        <v>43</v>
+      </c>
+      <c r="R23" s="254" t="s">
+        <v>42</v>
+      </c>
+      <c r="T23" s="256" t="s">
+        <v>163</v>
+      </c>
+      <c r="U23" s="254" t="s">
+        <v>41</v>
+      </c>
+      <c r="W23" s="256" t="s">
+        <v>163</v>
+      </c>
+      <c r="X23" s="254" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z23" s="321" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA23" s="321"/>
+      <c r="AB23" s="321"/>
+    </row>
+    <row r="24" spans="1:28" ht="14" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H24" s="305"/>
+      <c r="I24" s="305"/>
+      <c r="J24" s="305"/>
+      <c r="K24" s="305"/>
+      <c r="L24" s="305"/>
+      <c r="N24" s="331" t="s">
         <v>47</v>
       </c>
-      <c r="O22" s="364"/>
-      <c r="Q22" s="364" t="s">
+      <c r="O24" s="331"/>
+      <c r="Q24" s="331" t="s">
         <v>47</v>
       </c>
-      <c r="R22" s="364"/>
-      <c r="T22" s="360" t="s">
+      <c r="R24" s="331"/>
+      <c r="T24" s="331" t="s">
         <v>48</v>
       </c>
-      <c r="U22" s="360"/>
-      <c r="W22" s="360" t="s">
+      <c r="U24" s="331"/>
+      <c r="W24" s="331" t="s">
         <v>48</v>
       </c>
-      <c r="X22" s="360"/>
-    </row>
-    <row r="23" spans="1:28" ht="14" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="355" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="355"/>
-      <c r="D23" s="355"/>
-      <c r="E23" s="355"/>
-      <c r="F23" s="355"/>
-      <c r="H23" s="345" t="s">
-        <v>60</v>
-      </c>
-      <c r="I23" s="345"/>
-      <c r="J23" s="345"/>
-      <c r="K23" s="345"/>
-      <c r="L23" s="345"/>
-      <c r="N23" s="256" t="s">
-        <v>46</v>
-      </c>
-      <c r="O23" s="254" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q23" s="256" t="s">
-        <v>46</v>
-      </c>
-      <c r="R23" s="254" t="s">
-        <v>45</v>
-      </c>
-      <c r="T23" s="256" t="s">
-        <v>170</v>
-      </c>
-      <c r="U23" s="254" t="s">
-        <v>44</v>
-      </c>
-      <c r="W23" s="256" t="s">
-        <v>170</v>
-      </c>
-      <c r="X23" s="254" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z23" s="345" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA23" s="345"/>
-      <c r="AB23" s="345"/>
-    </row>
-    <row r="24" spans="1:28" ht="14" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H24" s="345"/>
-      <c r="I24" s="345"/>
-      <c r="J24" s="345"/>
-      <c r="K24" s="345"/>
-      <c r="L24" s="345"/>
-      <c r="N24" s="360" t="s">
-        <v>51</v>
-      </c>
-      <c r="O24" s="360"/>
-      <c r="Q24" s="360" t="s">
-        <v>51</v>
-      </c>
-      <c r="R24" s="360"/>
-      <c r="T24" s="360" t="s">
-        <v>52</v>
-      </c>
-      <c r="U24" s="360"/>
-      <c r="W24" s="360" t="s">
-        <v>52</v>
-      </c>
-      <c r="X24" s="360"/>
-      <c r="Z24" s="345"/>
-      <c r="AA24" s="345"/>
-      <c r="AB24" s="345"/>
+      <c r="X24" s="331"/>
+      <c r="Z24" s="321"/>
+      <c r="AA24" s="321"/>
+      <c r="AB24" s="321"/>
     </row>
     <row r="25" spans="1:28" ht="14" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="352">
+      <c r="A25" s="338">
         <v>1</v>
       </c>
       <c r="B25" s="258" t="s">
@@ -22953,7 +21997,7 @@
       <c r="C25" s="259" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="353">
+      <c r="D25" s="339">
         <v>3</v>
       </c>
       <c r="E25" s="258" t="s">
@@ -22962,82 +22006,82 @@
       <c r="F25" s="259" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="345"/>
-      <c r="I25" s="345"/>
-      <c r="J25" s="345"/>
-      <c r="K25" s="345"/>
-      <c r="L25" s="345"/>
+      <c r="H25" s="305"/>
+      <c r="I25" s="305"/>
+      <c r="J25" s="305"/>
+      <c r="K25" s="305"/>
+      <c r="L25" s="305"/>
       <c r="N25" s="257" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O25" s="263" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q25" s="257" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R25" s="263" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="T25" s="257" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U25" s="263" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="W25" s="257" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X25" s="263" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z25" s="345"/>
-      <c r="AA25" s="345"/>
-      <c r="AB25" s="345"/>
+        <v>40</v>
+      </c>
+      <c r="Z25" s="321"/>
+      <c r="AA25" s="321"/>
+      <c r="AB25" s="321"/>
     </row>
     <row r="26" spans="1:28" ht="14" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="352"/>
+      <c r="A26" s="338"/>
       <c r="B26" s="260" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="261" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="353"/>
+      <c r="D26" s="339"/>
       <c r="E26" s="260" t="s">
         <v>15</v>
       </c>
       <c r="F26" s="261" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="345"/>
-      <c r="I26" s="345"/>
-      <c r="J26" s="345"/>
-      <c r="K26" s="345"/>
-      <c r="L26" s="345"/>
-      <c r="N26" s="360" t="s">
-        <v>54</v>
-      </c>
-      <c r="O26" s="360"/>
-      <c r="Q26" s="360" t="s">
-        <v>54</v>
-      </c>
-      <c r="R26" s="360"/>
-      <c r="T26" s="360" t="s">
-        <v>53</v>
-      </c>
-      <c r="U26" s="360"/>
-      <c r="W26" s="360" t="s">
-        <v>53</v>
-      </c>
-      <c r="X26" s="360"/>
+      <c r="H26" s="305"/>
+      <c r="I26" s="305"/>
+      <c r="J26" s="305"/>
+      <c r="K26" s="305"/>
+      <c r="L26" s="305"/>
+      <c r="N26" s="331" t="s">
+        <v>50</v>
+      </c>
+      <c r="O26" s="331"/>
+      <c r="Q26" s="331" t="s">
+        <v>50</v>
+      </c>
+      <c r="R26" s="331"/>
+      <c r="T26" s="331" t="s">
+        <v>49</v>
+      </c>
+      <c r="U26" s="331"/>
+      <c r="W26" s="331" t="s">
+        <v>49</v>
+      </c>
+      <c r="X26" s="331"/>
     </row>
     <row r="27" spans="1:28" ht="14" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H27" s="345"/>
-      <c r="I27" s="345"/>
-      <c r="J27" s="345"/>
-      <c r="K27" s="345"/>
-      <c r="L27" s="345"/>
+      <c r="H27" s="305"/>
+      <c r="I27" s="305"/>
+      <c r="J27" s="305"/>
+      <c r="K27" s="305"/>
+      <c r="L27" s="305"/>
       <c r="N27" s="33"/>
       <c r="O27" s="164"/>
       <c r="P27" s="164"/>
@@ -23050,16 +22094,16 @@
       <c r="X27" s="23"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A28" s="352">
+      <c r="A28" s="338">
         <v>2</v>
       </c>
       <c r="B28" s="258" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="259" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="353">
+        <v>51</v>
+      </c>
+      <c r="D28" s="339">
         <v>4</v>
       </c>
       <c r="E28" s="258" t="s">
@@ -23068,49 +22112,49 @@
       <c r="F28" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="345"/>
-      <c r="I28" s="345"/>
-      <c r="J28" s="345"/>
-      <c r="K28" s="345"/>
-      <c r="L28" s="345"/>
-      <c r="N28" s="356" t="s">
-        <v>252</v>
-      </c>
-      <c r="O28" s="356"/>
-      <c r="P28" s="356"/>
-      <c r="Q28" s="356"/>
-      <c r="R28" s="356"/>
+      <c r="H28" s="305"/>
+      <c r="I28" s="305"/>
+      <c r="J28" s="305"/>
+      <c r="K28" s="305"/>
+      <c r="L28" s="305"/>
+      <c r="N28" s="342" t="s">
+        <v>242</v>
+      </c>
+      <c r="O28" s="342"/>
+      <c r="P28" s="342"/>
+      <c r="Q28" s="342"/>
+      <c r="R28" s="342"/>
       <c r="S28" s="34"/>
-      <c r="T28" s="357" t="s">
-        <v>253</v>
-      </c>
-      <c r="U28" s="357"/>
-      <c r="V28" s="357"/>
-      <c r="W28" s="357"/>
-      <c r="X28" s="357"/>
+      <c r="T28" s="343" t="s">
+        <v>243</v>
+      </c>
+      <c r="U28" s="343"/>
+      <c r="V28" s="343"/>
+      <c r="W28" s="343"/>
+      <c r="X28" s="343"/>
     </row>
     <row r="29" spans="1:28" ht="14" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="352"/>
+      <c r="A29" s="338"/>
       <c r="B29" s="260" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="261" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="353"/>
+      <c r="D29" s="339"/>
       <c r="E29" s="260" t="s">
         <v>15</v>
       </c>
       <c r="F29" s="261" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="354" t="s">
-        <v>66</v>
-      </c>
-      <c r="I29" s="354"/>
-      <c r="J29" s="354"/>
-      <c r="K29" s="354"/>
-      <c r="L29" s="354"/>
+      <c r="H29" s="340" t="s">
+        <v>59</v>
+      </c>
+      <c r="I29" s="340"/>
+      <c r="J29" s="340"/>
+      <c r="K29" s="340"/>
+      <c r="L29" s="340"/>
       <c r="N29" s="35"/>
       <c r="O29" s="35"/>
       <c r="P29" s="34"/>
@@ -23155,7 +22199,7 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B33" s="186" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>6</v>
@@ -23170,7 +22214,7 @@
         <v>12</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="I33" s="174" t="s">
         <v>15</v>
@@ -23200,7 +22244,7 @@
         <v>13</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="I35" s="174" t="s">
         <v>15</v>
@@ -23208,7 +22252,7 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B36" s="181" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>6</v>
@@ -23238,7 +22282,7 @@
         <v>14</v>
       </c>
       <c r="H37" s="175" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="I37" s="176" t="s">
         <v>16</v>
@@ -23252,10 +22296,10 @@
     </row>
     <row r="39" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="181" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>16</v>
@@ -23263,11 +22307,11 @@
       <c r="E39" s="174" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="345" t="s">
-        <v>181</v>
-      </c>
-      <c r="H39" s="345"/>
-      <c r="I39" s="345"/>
+      <c r="G39" s="305" t="s">
+        <v>174</v>
+      </c>
+      <c r="H39" s="305"/>
+      <c r="I39" s="305"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B40" s="177"/>
@@ -23280,9 +22324,9 @@
       <c r="E40" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="345"/>
-      <c r="H40" s="345"/>
-      <c r="I40" s="345"/>
+      <c r="G40" s="305"/>
+      <c r="H40" s="305"/>
+      <c r="I40" s="305"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B41" s="179"/>
@@ -23295,7 +22339,7 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B42" s="181" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>6</v>
@@ -23316,7 +22360,7 @@
         <v>7</v>
       </c>
       <c r="D43" s="175" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E43" s="176" t="s">
         <v>8</v>
@@ -23327,28 +22371,36 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="Z3:AB5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="G39:I40"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="Z23:AB25"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="H23:L28"/>
+    <mergeCell ref="N28:R28"/>
+    <mergeCell ref="T28:X28"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="Z19:AB21"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="Z15:AB17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="T15:U15"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="Z7:AB9"/>
     <mergeCell ref="C8:F8"/>
@@ -23365,36 +22417,28 @@
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="T11:U11"/>
     <mergeCell ref="T13:U13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="Z15:AB17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="Z19:AB21"/>
-    <mergeCell ref="G39:I40"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="Z23:AB25"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="H23:L28"/>
-    <mergeCell ref="N28:R28"/>
-    <mergeCell ref="T28:X28"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="Z3:AB5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="W26:X26"/>
   </mergeCells>
   <pageMargins left="2.56" right="2.15" top="0.75" bottom="0.75" header="0.61" footer="0.3"/>
   <pageSetup scale="32" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -23402,15 +22446,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56F31A9-A5D7-41B5-92A8-08C9990FECCF}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:S38"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="77" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView showGridLines="0" zoomScale="121" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -23423,67 +22467,67 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B2" s="368" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="368"/>
-      <c r="D2" s="368"/>
-      <c r="E2" s="368"/>
-      <c r="F2" s="368"/>
-      <c r="G2" s="368"/>
-      <c r="H2" s="368"/>
-      <c r="I2" s="368"/>
-      <c r="J2" s="368"/>
-      <c r="K2" s="368"/>
-      <c r="L2" s="368"/>
-      <c r="M2" s="368"/>
+      <c r="B2" s="347" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="347"/>
+      <c r="D2" s="347"/>
+      <c r="E2" s="347"/>
+      <c r="F2" s="347"/>
+      <c r="G2" s="347"/>
+      <c r="H2" s="347"/>
+      <c r="I2" s="347"/>
+      <c r="J2" s="347"/>
+      <c r="K2" s="347"/>
+      <c r="L2" s="347"/>
+      <c r="M2" s="347"/>
       <c r="N2" s="36"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B3" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="L3" s="36" t="s">
         <v>239</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="M3" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="D3" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>242</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>244</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>249</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>250</v>
-      </c>
       <c r="N3" s="36"/>
-      <c r="O3" s="323" t="s">
-        <v>143</v>
-      </c>
-      <c r="P3" s="323"/>
-      <c r="Q3" s="323"/>
-      <c r="R3" s="323"/>
-      <c r="S3" s="347"/>
+      <c r="O3" s="325" t="s">
+        <v>136</v>
+      </c>
+      <c r="P3" s="325"/>
+      <c r="Q3" s="325"/>
+      <c r="R3" s="325"/>
+      <c r="S3" s="320"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B4" s="247"/>
@@ -23499,171 +22543,171 @@
       <c r="L4" s="246"/>
       <c r="M4" s="249"/>
       <c r="N4" s="86"/>
-      <c r="O4" s="323"/>
-      <c r="P4" s="323"/>
-      <c r="Q4" s="323"/>
-      <c r="R4" s="323"/>
-      <c r="S4" s="347"/>
+      <c r="O4" s="325"/>
+      <c r="P4" s="325"/>
+      <c r="Q4" s="325"/>
+      <c r="R4" s="325"/>
+      <c r="S4" s="320"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B5" s="370" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="371"/>
-      <c r="D5" s="370" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" s="371"/>
-      <c r="F5" s="370" t="s">
-        <v>140</v>
-      </c>
-      <c r="G5" s="371"/>
-      <c r="H5" s="370" t="s">
-        <v>139</v>
-      </c>
-      <c r="I5" s="371"/>
-      <c r="J5" s="370" t="s">
-        <v>140</v>
-      </c>
-      <c r="K5" s="372"/>
-      <c r="L5" s="370" t="s">
-        <v>139</v>
-      </c>
-      <c r="M5" s="372"/>
+      <c r="B5" s="344" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="345"/>
+      <c r="D5" s="344" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="345"/>
+      <c r="F5" s="344" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="345"/>
+      <c r="H5" s="344" t="s">
+        <v>132</v>
+      </c>
+      <c r="I5" s="345"/>
+      <c r="J5" s="344" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" s="346"/>
+      <c r="L5" s="344" t="s">
+        <v>132</v>
+      </c>
+      <c r="M5" s="346"/>
       <c r="N5" s="36"/>
-      <c r="S5" s="347"/>
+      <c r="S5" s="320"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B6" s="38"/>
-      <c r="O6" s="345" t="s">
-        <v>145</v>
-      </c>
-      <c r="P6" s="345"/>
-      <c r="Q6" s="345"/>
-      <c r="R6" s="345"/>
-      <c r="S6" s="347"/>
+      <c r="O6" s="305" t="s">
+        <v>138</v>
+      </c>
+      <c r="P6" s="305"/>
+      <c r="Q6" s="305"/>
+      <c r="R6" s="305"/>
+      <c r="S6" s="320"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B7" s="345" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" s="345"/>
-      <c r="D7" s="345"/>
-      <c r="E7" s="345"/>
-      <c r="F7" s="345"/>
-      <c r="G7" s="345"/>
-      <c r="H7" s="345"/>
-      <c r="I7" s="345"/>
-      <c r="J7" s="345"/>
-      <c r="K7" s="345"/>
-      <c r="L7" s="345"/>
-      <c r="M7" s="345"/>
+      <c r="B7" s="305" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="305"/>
+      <c r="D7" s="305"/>
+      <c r="E7" s="305"/>
+      <c r="F7" s="305"/>
+      <c r="G7" s="305"/>
+      <c r="H7" s="305"/>
+      <c r="I7" s="305"/>
+      <c r="J7" s="305"/>
+      <c r="K7" s="305"/>
+      <c r="L7" s="305"/>
+      <c r="M7" s="305"/>
       <c r="N7" s="100"/>
-      <c r="O7" s="345"/>
-      <c r="P7" s="345"/>
-      <c r="Q7" s="345"/>
-      <c r="R7" s="345"/>
-      <c r="S7" s="347"/>
+      <c r="O7" s="305"/>
+      <c r="P7" s="305"/>
+      <c r="Q7" s="305"/>
+      <c r="R7" s="305"/>
+      <c r="S7" s="320"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B8" s="345"/>
-      <c r="C8" s="345"/>
-      <c r="D8" s="345"/>
-      <c r="E8" s="345"/>
-      <c r="F8" s="345"/>
-      <c r="G8" s="345"/>
-      <c r="H8" s="345"/>
-      <c r="I8" s="345"/>
-      <c r="J8" s="345"/>
-      <c r="K8" s="345"/>
-      <c r="L8" s="345"/>
-      <c r="M8" s="345"/>
+      <c r="B8" s="305"/>
+      <c r="C8" s="305"/>
+      <c r="D8" s="305"/>
+      <c r="E8" s="305"/>
+      <c r="F8" s="305"/>
+      <c r="G8" s="305"/>
+      <c r="H8" s="305"/>
+      <c r="I8" s="305"/>
+      <c r="J8" s="305"/>
+      <c r="K8" s="305"/>
+      <c r="L8" s="305"/>
+      <c r="M8" s="305"/>
       <c r="N8" s="100"/>
-      <c r="O8" s="345"/>
-      <c r="P8" s="345"/>
-      <c r="Q8" s="345"/>
-      <c r="R8" s="345"/>
-      <c r="S8" s="347"/>
+      <c r="O8" s="305"/>
+      <c r="P8" s="305"/>
+      <c r="Q8" s="305"/>
+      <c r="R8" s="305"/>
+      <c r="S8" s="320"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B9" s="345"/>
-      <c r="C9" s="345"/>
-      <c r="D9" s="345"/>
-      <c r="E9" s="345"/>
-      <c r="F9" s="345"/>
-      <c r="G9" s="345"/>
-      <c r="H9" s="345"/>
-      <c r="I9" s="345"/>
-      <c r="J9" s="345"/>
-      <c r="K9" s="345"/>
-      <c r="L9" s="345"/>
-      <c r="M9" s="345"/>
+      <c r="B9" s="305"/>
+      <c r="C9" s="305"/>
+      <c r="D9" s="305"/>
+      <c r="E9" s="305"/>
+      <c r="F9" s="305"/>
+      <c r="G9" s="305"/>
+      <c r="H9" s="305"/>
+      <c r="I9" s="305"/>
+      <c r="J9" s="305"/>
+      <c r="K9" s="305"/>
+      <c r="L9" s="305"/>
+      <c r="M9" s="305"/>
       <c r="N9" s="100"/>
-      <c r="O9" s="345"/>
-      <c r="P9" s="345"/>
-      <c r="Q9" s="345"/>
-      <c r="R9" s="345"/>
-      <c r="S9" s="347"/>
+      <c r="O9" s="305"/>
+      <c r="P9" s="305"/>
+      <c r="Q9" s="305"/>
+      <c r="R9" s="305"/>
+      <c r="S9" s="320"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B10" s="345"/>
-      <c r="C10" s="345"/>
-      <c r="D10" s="345"/>
-      <c r="E10" s="345"/>
-      <c r="F10" s="345"/>
-      <c r="G10" s="345"/>
-      <c r="H10" s="345"/>
-      <c r="I10" s="345"/>
-      <c r="J10" s="345"/>
-      <c r="K10" s="345"/>
-      <c r="L10" s="345"/>
-      <c r="M10" s="345"/>
+      <c r="B10" s="305"/>
+      <c r="C10" s="305"/>
+      <c r="D10" s="305"/>
+      <c r="E10" s="305"/>
+      <c r="F10" s="305"/>
+      <c r="G10" s="305"/>
+      <c r="H10" s="305"/>
+      <c r="I10" s="305"/>
+      <c r="J10" s="305"/>
+      <c r="K10" s="305"/>
+      <c r="L10" s="305"/>
+      <c r="M10" s="305"/>
       <c r="N10" s="100"/>
-      <c r="O10" s="345"/>
-      <c r="P10" s="345"/>
-      <c r="Q10" s="345"/>
-      <c r="R10" s="345"/>
-      <c r="S10" s="347"/>
+      <c r="O10" s="305"/>
+      <c r="P10" s="305"/>
+      <c r="Q10" s="305"/>
+      <c r="R10" s="305"/>
+      <c r="S10" s="320"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B11" s="345"/>
-      <c r="C11" s="345"/>
-      <c r="D11" s="345"/>
-      <c r="E11" s="345"/>
-      <c r="F11" s="345"/>
-      <c r="G11" s="345"/>
-      <c r="H11" s="345"/>
-      <c r="I11" s="345"/>
-      <c r="J11" s="345"/>
-      <c r="K11" s="345"/>
-      <c r="L11" s="345"/>
-      <c r="M11" s="345"/>
+      <c r="B11" s="305"/>
+      <c r="C11" s="305"/>
+      <c r="D11" s="305"/>
+      <c r="E11" s="305"/>
+      <c r="F11" s="305"/>
+      <c r="G11" s="305"/>
+      <c r="H11" s="305"/>
+      <c r="I11" s="305"/>
+      <c r="J11" s="305"/>
+      <c r="K11" s="305"/>
+      <c r="L11" s="305"/>
+      <c r="M11" s="305"/>
       <c r="N11" s="100"/>
-      <c r="O11" s="345"/>
-      <c r="P11" s="345"/>
-      <c r="Q11" s="345"/>
-      <c r="R11" s="345"/>
-      <c r="S11" s="347"/>
+      <c r="O11" s="305"/>
+      <c r="P11" s="305"/>
+      <c r="Q11" s="305"/>
+      <c r="R11" s="305"/>
+      <c r="S11" s="320"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="O12" s="345"/>
-      <c r="P12" s="345"/>
-      <c r="Q12" s="345"/>
-      <c r="R12" s="345"/>
-      <c r="S12" s="347"/>
+      <c r="O12" s="305"/>
+      <c r="P12" s="305"/>
+      <c r="Q12" s="305"/>
+      <c r="R12" s="305"/>
+      <c r="S12" s="320"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B13" s="369" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="369"/>
+      <c r="B13" s="348" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="348"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B14" s="36">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.35">
@@ -23671,33 +22715,33 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O15" s="345" t="s">
-        <v>144</v>
-      </c>
-      <c r="P15" s="345"/>
-      <c r="Q15" s="345"/>
-      <c r="R15" s="345"/>
+        <v>127</v>
+      </c>
+      <c r="O15" s="305" t="s">
+        <v>137</v>
+      </c>
+      <c r="P15" s="305"/>
+      <c r="Q15" s="305"/>
+      <c r="R15" s="305"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B16" s="36">
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O16" s="345"/>
-      <c r="P16" s="345"/>
-      <c r="Q16" s="345"/>
-      <c r="R16" s="345"/>
+        <v>129</v>
+      </c>
+      <c r="O16" s="305"/>
+      <c r="P16" s="305"/>
+      <c r="Q16" s="305"/>
+      <c r="R16" s="305"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" s="36">
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.35">
@@ -23705,113 +22749,113 @@
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="O18" s="345" t="s">
-        <v>146</v>
-      </c>
-      <c r="P18" s="345"/>
-      <c r="Q18" s="345"/>
-      <c r="R18" s="345"/>
+        <v>131</v>
+      </c>
+      <c r="O18" s="305" t="s">
+        <v>139</v>
+      </c>
+      <c r="P18" s="305"/>
+      <c r="Q18" s="305"/>
+      <c r="R18" s="305"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" s="36">
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="O19" s="345"/>
-      <c r="P19" s="345"/>
-      <c r="Q19" s="345"/>
-      <c r="R19" s="345"/>
+        <v>126</v>
+      </c>
+      <c r="O19" s="305"/>
+      <c r="P19" s="305"/>
+      <c r="Q19" s="305"/>
+      <c r="R19" s="305"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="O20" s="345"/>
-      <c r="P20" s="345"/>
-      <c r="Q20" s="345"/>
-      <c r="R20" s="345"/>
+      <c r="O20" s="305"/>
+      <c r="P20" s="305"/>
+      <c r="Q20" s="305"/>
+      <c r="R20" s="305"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="O21" s="345"/>
-      <c r="P21" s="345"/>
-      <c r="Q21" s="345"/>
-      <c r="R21" s="345"/>
+      <c r="O21" s="305"/>
+      <c r="P21" s="305"/>
+      <c r="Q21" s="305"/>
+      <c r="R21" s="305"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="O22" s="345"/>
-      <c r="P22" s="345"/>
-      <c r="Q22" s="345"/>
-      <c r="R22" s="345"/>
+      <c r="O22" s="305"/>
+      <c r="P22" s="305"/>
+      <c r="Q22" s="305"/>
+      <c r="R22" s="305"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="O23" s="345"/>
-      <c r="P23" s="345"/>
-      <c r="Q23" s="345"/>
-      <c r="R23" s="345"/>
+      <c r="O23" s="305"/>
+      <c r="P23" s="305"/>
+      <c r="Q23" s="305"/>
+      <c r="R23" s="305"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="O27" s="323" t="s">
-        <v>142</v>
-      </c>
-      <c r="P27" s="323"/>
-      <c r="Q27" s="323"/>
-      <c r="R27" s="323"/>
+      <c r="O27" s="325" t="s">
+        <v>135</v>
+      </c>
+      <c r="P27" s="325"/>
+      <c r="Q27" s="325"/>
+      <c r="R27" s="325"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="O28" s="323"/>
-      <c r="P28" s="323"/>
-      <c r="Q28" s="323"/>
-      <c r="R28" s="323"/>
+      <c r="O28" s="325"/>
+      <c r="P28" s="325"/>
+      <c r="Q28" s="325"/>
+      <c r="R28" s="325"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="O30" s="345" t="s">
-        <v>141</v>
-      </c>
-      <c r="P30" s="345"/>
-      <c r="Q30" s="345"/>
-      <c r="R30" s="345"/>
+      <c r="O30" s="305" t="s">
+        <v>134</v>
+      </c>
+      <c r="P30" s="305"/>
+      <c r="Q30" s="305"/>
+      <c r="R30" s="305"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="O31" s="345"/>
-      <c r="P31" s="345"/>
-      <c r="Q31" s="345"/>
-      <c r="R31" s="345"/>
+      <c r="O31" s="305"/>
+      <c r="P31" s="305"/>
+      <c r="Q31" s="305"/>
+      <c r="R31" s="305"/>
     </row>
     <row r="32" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="M32" s="47"/>
       <c r="N32" s="47"/>
-      <c r="O32" s="345"/>
-      <c r="P32" s="345"/>
-      <c r="Q32" s="345"/>
-      <c r="R32" s="345"/>
+      <c r="O32" s="305"/>
+      <c r="P32" s="305"/>
+      <c r="Q32" s="305"/>
+      <c r="R32" s="305"/>
     </row>
     <row r="33" spans="12:18" x14ac:dyDescent="0.35">
       <c r="L33" s="47"/>
       <c r="M33" s="47"/>
       <c r="N33" s="47"/>
-      <c r="O33" s="345"/>
-      <c r="P33" s="345"/>
-      <c r="Q33" s="345"/>
-      <c r="R33" s="345"/>
+      <c r="O33" s="305"/>
+      <c r="P33" s="305"/>
+      <c r="Q33" s="305"/>
+      <c r="R33" s="305"/>
     </row>
     <row r="34" spans="12:18" x14ac:dyDescent="0.35">
       <c r="L34" s="47"/>
       <c r="M34" s="47"/>
       <c r="N34" s="47"/>
-      <c r="O34" s="345"/>
-      <c r="P34" s="345"/>
-      <c r="Q34" s="345"/>
-      <c r="R34" s="345"/>
+      <c r="O34" s="305"/>
+      <c r="P34" s="305"/>
+      <c r="Q34" s="305"/>
+      <c r="R34" s="305"/>
     </row>
     <row r="35" spans="12:18" x14ac:dyDescent="0.35">
       <c r="L35" s="47"/>
       <c r="M35" s="47"/>
       <c r="N35" s="47"/>
-      <c r="O35" s="345"/>
-      <c r="P35" s="345"/>
-      <c r="Q35" s="345"/>
-      <c r="R35" s="345"/>
+      <c r="O35" s="305"/>
+      <c r="P35" s="305"/>
+      <c r="Q35" s="305"/>
+      <c r="R35" s="305"/>
     </row>
     <row r="36" spans="12:18" x14ac:dyDescent="0.35">
       <c r="L36" s="47"/>
@@ -23839,6 +22883,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="O30:R35"/>
+    <mergeCell ref="O15:R16"/>
+    <mergeCell ref="O3:R4"/>
+    <mergeCell ref="O18:R23"/>
+    <mergeCell ref="O6:R12"/>
+    <mergeCell ref="B7:M11"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="S3:S12"/>
     <mergeCell ref="O27:R28"/>
     <mergeCell ref="B5:C5"/>
@@ -23847,14 +22899,6 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="O30:R35"/>
-    <mergeCell ref="O15:R16"/>
-    <mergeCell ref="O3:R4"/>
-    <mergeCell ref="O18:R23"/>
-    <mergeCell ref="O6:R12"/>
-    <mergeCell ref="B7:M11"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="55" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -23862,14 +22906,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36839812-F352-426E-BC42-FB52ACE5CD7F}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B3:R23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="82" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -23882,48 +22926,48 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="380" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="324"/>
-      <c r="D3" s="324"/>
-      <c r="E3" s="324"/>
-      <c r="F3" s="380" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="380"/>
-      <c r="H3" s="380"/>
-      <c r="I3" s="380"/>
-      <c r="J3" s="380"/>
-      <c r="K3" s="380"/>
-      <c r="L3" s="380"/>
-      <c r="M3" s="380"/>
-      <c r="N3" s="380"/>
-      <c r="O3" s="380"/>
-      <c r="P3" s="380"/>
-      <c r="Q3" s="380"/>
+      <c r="B3" s="351" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="326"/>
+      <c r="D3" s="326"/>
+      <c r="E3" s="326"/>
+      <c r="F3" s="351" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="351"/>
+      <c r="H3" s="351"/>
+      <c r="I3" s="351"/>
+      <c r="J3" s="351"/>
+      <c r="K3" s="351"/>
+      <c r="L3" s="351"/>
+      <c r="M3" s="351"/>
+      <c r="N3" s="351"/>
+      <c r="O3" s="351"/>
+      <c r="P3" s="351"/>
+      <c r="Q3" s="351"/>
     </row>
     <row r="4" spans="2:18" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="384" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="384"/>
-      <c r="D4" s="384"/>
-      <c r="E4" s="384"/>
-      <c r="F4" s="384" t="s">
-        <v>158</v>
-      </c>
-      <c r="G4" s="384"/>
-      <c r="H4" s="384"/>
-      <c r="I4" s="384"/>
-      <c r="J4" s="384"/>
-      <c r="K4" s="384"/>
-      <c r="L4" s="384"/>
-      <c r="M4" s="384"/>
-      <c r="N4" s="384"/>
-      <c r="O4" s="384"/>
-      <c r="P4" s="384"/>
-      <c r="Q4" s="384"/>
+      <c r="B4" s="355" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="355"/>
+      <c r="D4" s="355"/>
+      <c r="E4" s="355"/>
+      <c r="F4" s="355" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="355"/>
+      <c r="H4" s="355"/>
+      <c r="I4" s="355"/>
+      <c r="J4" s="355"/>
+      <c r="K4" s="355"/>
+      <c r="L4" s="355"/>
+      <c r="M4" s="355"/>
+      <c r="N4" s="355"/>
+      <c r="O4" s="355"/>
+      <c r="P4" s="355"/>
+      <c r="Q4" s="355"/>
       <c r="R4" s="129"/>
     </row>
     <row r="5" spans="2:18" ht="14" thickBot="1" x14ac:dyDescent="0.4">
@@ -24010,62 +23054,62 @@
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B8" s="130"/>
-      <c r="C8" s="383" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="383"/>
+      <c r="C8" s="354" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="354"/>
       <c r="E8" s="122"/>
       <c r="F8" s="133"/>
       <c r="G8" s="134"/>
-      <c r="H8" s="378" t="s">
-        <v>139</v>
-      </c>
-      <c r="I8" s="379"/>
+      <c r="H8" s="349" t="s">
+        <v>132</v>
+      </c>
+      <c r="I8" s="350"/>
       <c r="J8" s="133"/>
       <c r="K8" s="134"/>
-      <c r="L8" s="378" t="s">
-        <v>139</v>
-      </c>
-      <c r="M8" s="379"/>
+      <c r="L8" s="349" t="s">
+        <v>132</v>
+      </c>
+      <c r="M8" s="350"/>
       <c r="N8" s="133"/>
       <c r="O8" s="134"/>
-      <c r="P8" s="381" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q8" s="382"/>
+      <c r="P8" s="352" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q8" s="353"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B9" s="161"/>
       <c r="C9" s="130" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D9" s="130">
         <v>20</v>
       </c>
       <c r="E9" s="124"/>
-      <c r="F9" s="374" t="s">
-        <v>140</v>
-      </c>
-      <c r="G9" s="374"/>
+      <c r="F9" s="358" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="358"/>
       <c r="H9" s="136"/>
       <c r="I9" s="137"/>
-      <c r="J9" s="374" t="s">
-        <v>140</v>
-      </c>
-      <c r="K9" s="374"/>
+      <c r="J9" s="358" t="s">
+        <v>133</v>
+      </c>
+      <c r="K9" s="358"/>
       <c r="L9" s="138"/>
       <c r="M9" s="138"/>
-      <c r="N9" s="374" t="s">
-        <v>140</v>
-      </c>
-      <c r="O9" s="374"/>
+      <c r="N9" s="358" t="s">
+        <v>133</v>
+      </c>
+      <c r="O9" s="358"/>
       <c r="P9" s="138"/>
       <c r="Q9" s="138"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B10" s="162"/>
       <c r="C10" s="130" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D10" s="130">
         <v>60</v>
@@ -24089,27 +23133,27 @@
       <c r="C11" s="126"/>
       <c r="D11" s="126"/>
       <c r="E11" s="126"/>
-      <c r="F11" s="385" t="s">
-        <v>161</v>
-      </c>
-      <c r="G11" s="385"/>
-      <c r="H11" s="385"/>
-      <c r="I11" s="385"/>
-      <c r="J11" s="385"/>
-      <c r="K11" s="385"/>
-      <c r="L11" s="385"/>
-      <c r="M11" s="385"/>
-      <c r="N11" s="385"/>
-      <c r="O11" s="385"/>
-      <c r="P11" s="385"/>
-      <c r="Q11" s="385"/>
+      <c r="F11" s="356" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="356"/>
+      <c r="H11" s="356"/>
+      <c r="I11" s="356"/>
+      <c r="J11" s="356"/>
+      <c r="K11" s="356"/>
+      <c r="L11" s="356"/>
+      <c r="M11" s="356"/>
+      <c r="N11" s="356"/>
+      <c r="O11" s="356"/>
+      <c r="P11" s="356"/>
+      <c r="Q11" s="356"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B12" s="127"/>
-      <c r="C12" s="383" t="s">
+      <c r="C12" s="354" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="383"/>
+      <c r="D12" s="354"/>
       <c r="E12" s="127"/>
       <c r="F12" s="145"/>
       <c r="G12" s="145"/>
@@ -24127,7 +23171,7 @@
     <row r="13" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B13" s="127"/>
       <c r="C13" s="130" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D13" s="130">
         <v>20</v>
@@ -24136,22 +23180,22 @@
       <c r="F13" s="145"/>
       <c r="G13" s="145"/>
       <c r="H13" s="145"/>
-      <c r="I13" s="373" t="s">
-        <v>163</v>
-      </c>
-      <c r="J13" s="373"/>
-      <c r="K13" s="373"/>
-      <c r="L13" s="373"/>
-      <c r="M13" s="373"/>
-      <c r="N13" s="373"/>
-      <c r="O13" s="373"/>
+      <c r="I13" s="357" t="s">
+        <v>156</v>
+      </c>
+      <c r="J13" s="357"/>
+      <c r="K13" s="357"/>
+      <c r="L13" s="357"/>
+      <c r="M13" s="357"/>
+      <c r="N13" s="357"/>
+      <c r="O13" s="357"/>
       <c r="P13" s="146"/>
       <c r="Q13" s="146"/>
     </row>
     <row r="14" spans="2:18" ht="14" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="127"/>
       <c r="C14" s="130" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D14" s="130">
         <v>20</v>
@@ -24162,13 +23206,13 @@
       <c r="H14" s="145"/>
       <c r="I14" s="147"/>
       <c r="J14" s="160" t="s">
-        <v>164</v>
-      </c>
-      <c r="K14" s="377"/>
-      <c r="L14" s="377"/>
-      <c r="M14" s="377"/>
+        <v>157</v>
+      </c>
+      <c r="K14" s="361"/>
+      <c r="L14" s="361"/>
+      <c r="M14" s="361"/>
       <c r="N14" s="160" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="O14" s="148"/>
       <c r="P14" s="145"/>
@@ -24177,7 +23221,7 @@
     <row r="15" spans="2:18" ht="16" x14ac:dyDescent="0.4">
       <c r="B15" s="127"/>
       <c r="C15" s="130" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D15" s="130">
         <v>20</v>
@@ -24187,7 +23231,7 @@
       <c r="G15" s="145"/>
       <c r="H15" s="146"/>
       <c r="I15" s="149" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="J15" s="158"/>
       <c r="K15" s="157"/>
@@ -24195,7 +23239,7 @@
       <c r="M15" s="156"/>
       <c r="N15" s="159"/>
       <c r="O15" s="149" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="P15" s="145"/>
       <c r="Q15" s="145"/>
@@ -24203,7 +23247,7 @@
     <row r="16" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B16" s="127"/>
       <c r="C16" s="130" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D16" s="130">
         <v>20</v>
@@ -24243,13 +23287,13 @@
       <c r="G17" s="145"/>
       <c r="H17" s="145"/>
       <c r="I17" s="153"/>
-      <c r="J17" s="376" t="s">
-        <v>162</v>
-      </c>
-      <c r="K17" s="376"/>
-      <c r="L17" s="376"/>
-      <c r="M17" s="376"/>
-      <c r="N17" s="376"/>
+      <c r="J17" s="360" t="s">
+        <v>155</v>
+      </c>
+      <c r="K17" s="360"/>
+      <c r="L17" s="360"/>
+      <c r="M17" s="360"/>
+      <c r="N17" s="360"/>
       <c r="O17" s="154"/>
       <c r="P17" s="145"/>
       <c r="Q17" s="145"/>
@@ -24287,63 +23331,70 @@
       <c r="Q19" s="145"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B21" s="375" t="s">
-        <v>172</v>
-      </c>
-      <c r="C21" s="375"/>
-      <c r="D21" s="375"/>
-      <c r="E21" s="375"/>
-      <c r="F21" s="375"/>
-      <c r="G21" s="375"/>
-      <c r="H21" s="375"/>
-      <c r="I21" s="375"/>
-      <c r="J21" s="375"/>
-      <c r="K21" s="375"/>
-      <c r="L21" s="375"/>
-      <c r="M21" s="375"/>
-      <c r="N21" s="375"/>
-      <c r="O21" s="375"/>
-      <c r="P21" s="375"/>
-      <c r="Q21" s="375"/>
+      <c r="B21" s="359" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="359"/>
+      <c r="D21" s="359"/>
+      <c r="E21" s="359"/>
+      <c r="F21" s="359"/>
+      <c r="G21" s="359"/>
+      <c r="H21" s="359"/>
+      <c r="I21" s="359"/>
+      <c r="J21" s="359"/>
+      <c r="K21" s="359"/>
+      <c r="L21" s="359"/>
+      <c r="M21" s="359"/>
+      <c r="N21" s="359"/>
+      <c r="O21" s="359"/>
+      <c r="P21" s="359"/>
+      <c r="Q21" s="359"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B22" s="375"/>
-      <c r="C22" s="375"/>
-      <c r="D22" s="375"/>
-      <c r="E22" s="375"/>
-      <c r="F22" s="375"/>
-      <c r="G22" s="375"/>
-      <c r="H22" s="375"/>
-      <c r="I22" s="375"/>
-      <c r="J22" s="375"/>
-      <c r="K22" s="375"/>
-      <c r="L22" s="375"/>
-      <c r="M22" s="375"/>
-      <c r="N22" s="375"/>
-      <c r="O22" s="375"/>
-      <c r="P22" s="375"/>
-      <c r="Q22" s="375"/>
+      <c r="B22" s="359"/>
+      <c r="C22" s="359"/>
+      <c r="D22" s="359"/>
+      <c r="E22" s="359"/>
+      <c r="F22" s="359"/>
+      <c r="G22" s="359"/>
+      <c r="H22" s="359"/>
+      <c r="I22" s="359"/>
+      <c r="J22" s="359"/>
+      <c r="K22" s="359"/>
+      <c r="L22" s="359"/>
+      <c r="M22" s="359"/>
+      <c r="N22" s="359"/>
+      <c r="O22" s="359"/>
+      <c r="P22" s="359"/>
+      <c r="Q22" s="359"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B23" s="375"/>
-      <c r="C23" s="375"/>
-      <c r="D23" s="375"/>
-      <c r="E23" s="375"/>
-      <c r="F23" s="375"/>
-      <c r="G23" s="375"/>
-      <c r="H23" s="375"/>
-      <c r="I23" s="375"/>
-      <c r="J23" s="375"/>
-      <c r="K23" s="375"/>
-      <c r="L23" s="375"/>
-      <c r="M23" s="375"/>
-      <c r="N23" s="375"/>
-      <c r="O23" s="375"/>
-      <c r="P23" s="375"/>
-      <c r="Q23" s="375"/>
+      <c r="B23" s="359"/>
+      <c r="C23" s="359"/>
+      <c r="D23" s="359"/>
+      <c r="E23" s="359"/>
+      <c r="F23" s="359"/>
+      <c r="G23" s="359"/>
+      <c r="H23" s="359"/>
+      <c r="I23" s="359"/>
+      <c r="J23" s="359"/>
+      <c r="K23" s="359"/>
+      <c r="L23" s="359"/>
+      <c r="M23" s="359"/>
+      <c r="N23" s="359"/>
+      <c r="O23" s="359"/>
+      <c r="P23" s="359"/>
+      <c r="Q23" s="359"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="I13:O13"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B21:Q23"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="K14:M14"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="F3:Q3"/>
     <mergeCell ref="H8:I8"/>
@@ -24354,20 +23405,13 @@
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:Q4"/>
     <mergeCell ref="F11:Q11"/>
-    <mergeCell ref="I13:O13"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B21:Q23"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="K14:M14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FBCA58-0396-46E3-8F1B-89C0F6C32117}">
   <dimension ref="B2:X20"/>
   <sheetViews>
@@ -24384,36 +23428,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="386" t="s">
-        <v>198</v>
-      </c>
-      <c r="D2" s="386"/>
-      <c r="E2" s="386"/>
-      <c r="F2" s="386"/>
-      <c r="G2" s="386"/>
-      <c r="H2" s="386"/>
-      <c r="I2" s="386"/>
-      <c r="J2" s="386"/>
-      <c r="K2" s="386"/>
-      <c r="L2" s="386"/>
-      <c r="M2" s="386" t="s">
-        <v>199</v>
-      </c>
-      <c r="N2" s="386"/>
-      <c r="O2" s="386"/>
-      <c r="P2" s="386"/>
-      <c r="Q2" s="386"/>
-      <c r="R2" s="386"/>
-      <c r="S2" s="386"/>
-      <c r="T2" s="386"/>
-      <c r="U2" s="386"/>
-      <c r="V2" s="386"/>
-      <c r="W2" s="386"/>
-      <c r="X2" s="386"/>
+      <c r="C2" s="362" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="362"/>
+      <c r="E2" s="362"/>
+      <c r="F2" s="362"/>
+      <c r="G2" s="362"/>
+      <c r="H2" s="362"/>
+      <c r="I2" s="362"/>
+      <c r="J2" s="362"/>
+      <c r="K2" s="362"/>
+      <c r="L2" s="362"/>
+      <c r="M2" s="362" t="s">
+        <v>189</v>
+      </c>
+      <c r="N2" s="362"/>
+      <c r="O2" s="362"/>
+      <c r="P2" s="362"/>
+      <c r="Q2" s="362"/>
+      <c r="R2" s="362"/>
+      <c r="S2" s="362"/>
+      <c r="T2" s="362"/>
+      <c r="U2" s="362"/>
+      <c r="V2" s="362"/>
+      <c r="W2" s="362"/>
+      <c r="X2" s="362"/>
     </row>
     <row r="3" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="195" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C3" s="188">
         <v>1</v>
@@ -24483,36 +23527,36 @@
       </c>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="C4" s="388" t="s">
-        <v>213</v>
-      </c>
-      <c r="D4" s="388"/>
-      <c r="E4" s="388"/>
-      <c r="F4" s="388"/>
-      <c r="G4" s="388"/>
-      <c r="H4" s="388"/>
-      <c r="I4" s="388"/>
-      <c r="J4" s="388"/>
-      <c r="K4" s="388"/>
-      <c r="L4" s="388"/>
-      <c r="M4" s="389" t="s">
-        <v>214</v>
-      </c>
-      <c r="N4" s="389"/>
-      <c r="O4" s="389"/>
-      <c r="P4" s="389"/>
-      <c r="Q4" s="389"/>
-      <c r="R4" s="389"/>
-      <c r="S4" s="389"/>
-      <c r="T4" s="389"/>
-      <c r="U4" s="389"/>
-      <c r="V4" s="389"/>
-      <c r="W4" s="389"/>
-      <c r="X4" s="389"/>
+      <c r="C4" s="364" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="364"/>
+      <c r="E4" s="364"/>
+      <c r="F4" s="364"/>
+      <c r="G4" s="364"/>
+      <c r="H4" s="364"/>
+      <c r="I4" s="364"/>
+      <c r="J4" s="364"/>
+      <c r="K4" s="364"/>
+      <c r="L4" s="364"/>
+      <c r="M4" s="365" t="s">
+        <v>204</v>
+      </c>
+      <c r="N4" s="365"/>
+      <c r="O4" s="365"/>
+      <c r="P4" s="365"/>
+      <c r="Q4" s="365"/>
+      <c r="R4" s="365"/>
+      <c r="S4" s="365"/>
+      <c r="T4" s="365"/>
+      <c r="U4" s="365"/>
+      <c r="V4" s="365"/>
+      <c r="W4" s="365"/>
+      <c r="X4" s="365"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.35">
       <c r="D5" s="205" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E5" s="205"/>
       <c r="F5" s="205"/>
@@ -24521,7 +23565,7 @@
       <c r="I5" s="205"/>
       <c r="J5" s="205"/>
       <c r="N5" s="206" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="O5" s="206"/>
       <c r="P5" s="206"/>
@@ -24536,7 +23580,7 @@
     <row r="6" spans="2:24" x14ac:dyDescent="0.35">
       <c r="D6" s="205"/>
       <c r="E6" s="205" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F6" s="205"/>
       <c r="G6" s="205"/>
@@ -24545,7 +23589,7 @@
       <c r="J6" s="205"/>
       <c r="N6" s="206"/>
       <c r="O6" s="206" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="P6" s="206"/>
       <c r="Q6" s="206"/>
@@ -24560,7 +23604,7 @@
       <c r="D7" s="205"/>
       <c r="E7" s="205"/>
       <c r="F7" s="205" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="G7" s="205"/>
       <c r="H7" s="205"/>
@@ -24570,7 +23614,7 @@
       <c r="O7" s="206"/>
       <c r="P7" s="206"/>
       <c r="Q7" s="206" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="R7" s="206"/>
       <c r="S7" s="206">
@@ -24586,18 +23630,18 @@
       <c r="E8" s="205"/>
       <c r="F8" s="205"/>
       <c r="G8" s="205" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H8" s="205"/>
       <c r="I8" s="205" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="J8" s="205"/>
       <c r="N8" s="206"/>
       <c r="O8" s="206"/>
       <c r="P8" s="206"/>
       <c r="Q8" s="206" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="R8" s="206"/>
       <c r="S8" s="206">
@@ -24612,7 +23656,7 @@
       <c r="D9" s="205"/>
       <c r="E9" s="205"/>
       <c r="F9" s="205" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="G9" s="205"/>
       <c r="H9" s="205"/>
@@ -24622,7 +23666,7 @@
       <c r="O9" s="206"/>
       <c r="P9" s="206"/>
       <c r="Q9" s="206" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="R9" s="206"/>
       <c r="S9" s="206">
@@ -24638,18 +23682,18 @@
       <c r="E10" s="205"/>
       <c r="F10" s="205"/>
       <c r="G10" s="205" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H10" s="205"/>
       <c r="I10" s="205" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="J10" s="205"/>
       <c r="N10" s="206"/>
       <c r="O10" s="206"/>
       <c r="P10" s="206"/>
       <c r="Q10" s="206" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="R10" s="206"/>
       <c r="S10" s="206">
@@ -24663,7 +23707,7 @@
     <row r="11" spans="2:24" x14ac:dyDescent="0.35">
       <c r="D11" s="205"/>
       <c r="E11" s="205" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="F11" s="205"/>
       <c r="G11" s="205"/>
@@ -24674,7 +23718,7 @@
       <c r="O11" s="206"/>
       <c r="P11" s="206"/>
       <c r="Q11" s="206" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="R11" s="206"/>
       <c r="S11" s="206">
@@ -24689,7 +23733,7 @@
       <c r="D12" s="205"/>
       <c r="E12" s="205"/>
       <c r="F12" s="205" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="G12" s="205"/>
       <c r="H12" s="205"/>
@@ -24699,7 +23743,7 @@
       <c r="O12" s="206"/>
       <c r="P12" s="206"/>
       <c r="Q12" s="206" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="R12" s="206"/>
       <c r="S12" s="206">
@@ -24714,12 +23758,12 @@
       <c r="D13" s="205"/>
       <c r="E13" s="205"/>
       <c r="F13" s="205"/>
-      <c r="G13" s="387" t="s">
-        <v>208</v>
-      </c>
-      <c r="H13" s="387"/>
+      <c r="G13" s="363" t="s">
+        <v>198</v>
+      </c>
+      <c r="H13" s="363"/>
       <c r="I13" s="205" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="J13" s="205"/>
       <c r="N13" s="206"/>
@@ -24737,18 +23781,18 @@
       <c r="D14" s="205"/>
       <c r="E14" s="205"/>
       <c r="F14" s="205"/>
-      <c r="G14" s="387" t="s">
-        <v>208</v>
-      </c>
-      <c r="H14" s="387"/>
+      <c r="G14" s="363" t="s">
+        <v>198</v>
+      </c>
+      <c r="H14" s="363"/>
       <c r="I14" s="205" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="J14" s="205"/>
       <c r="N14" s="206"/>
       <c r="O14" s="206"/>
       <c r="P14" s="206" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="Q14" s="206"/>
       <c r="R14" s="206"/>
@@ -24762,7 +23806,7 @@
       <c r="D15" s="205"/>
       <c r="E15" s="205"/>
       <c r="F15" s="205" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="G15" s="205"/>
       <c r="H15" s="205"/>
@@ -24772,7 +23816,7 @@
       <c r="O15" s="206"/>
       <c r="P15" s="206"/>
       <c r="Q15" s="206" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="R15" s="206"/>
       <c r="S15" s="206"/>
@@ -24786,11 +23830,11 @@
       <c r="E16" s="205"/>
       <c r="F16" s="205"/>
       <c r="G16" s="205" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="H16" s="205"/>
       <c r="I16" s="205" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="J16" s="205"/>
     </row>
@@ -24799,11 +23843,11 @@
       <c r="E17" s="205"/>
       <c r="F17" s="205"/>
       <c r="G17" s="205" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="H17" s="205"/>
       <c r="I17" s="205" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="J17" s="205"/>
     </row>
@@ -24811,7 +23855,7 @@
       <c r="D18" s="205"/>
       <c r="E18" s="205"/>
       <c r="F18" s="205" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="G18" s="205"/>
       <c r="H18" s="205"/>
@@ -24823,11 +23867,11 @@
       <c r="E19" s="205"/>
       <c r="F19" s="205"/>
       <c r="G19" s="205" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="H19" s="205"/>
       <c r="I19" s="205" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="J19" s="205"/>
     </row>
@@ -24836,11 +23880,11 @@
       <c r="E20" s="205"/>
       <c r="F20" s="205"/>
       <c r="G20" s="205" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="H20" s="205"/>
       <c r="I20" s="205" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="J20" s="205"/>
     </row>
@@ -24856,4 +23900,258 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1717E1-3A73-4856-9876-64B8916619F8}">
+  <dimension ref="B2:N17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="84" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="275" customWidth="1"/>
+    <col min="2" max="2" width="5.6328125" style="275" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" style="278" customWidth="1"/>
+    <col min="4" max="6" width="18.1796875" style="275" customWidth="1"/>
+    <col min="7" max="7" width="5.6328125" style="275" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" style="275" customWidth="1"/>
+    <col min="9" max="10" width="18.1796875" style="275" customWidth="1"/>
+    <col min="11" max="11" width="6.26953125" style="275" customWidth="1"/>
+    <col min="12" max="12" width="5.6328125" style="275" customWidth="1"/>
+    <col min="13" max="13" width="5.36328125" style="275" customWidth="1"/>
+    <col min="14" max="15" width="15.6328125" style="275" customWidth="1"/>
+    <col min="16" max="16384" width="8.7265625" style="275"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="366" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="366"/>
+      <c r="E2" s="366"/>
+      <c r="H2" s="366" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2" s="366"/>
+      <c r="J2" s="366"/>
+      <c r="N2" s="276" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="277"/>
+      <c r="C3" s="277"/>
+      <c r="D3" s="277"/>
+      <c r="E3" s="277"/>
+      <c r="G3" s="277"/>
+      <c r="H3" s="277"/>
+      <c r="I3" s="277"/>
+      <c r="J3" s="277"/>
+    </row>
+    <row r="4" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="277"/>
+      <c r="C4" s="277"/>
+      <c r="D4" s="370" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4" s="373"/>
+      <c r="G4" s="277"/>
+      <c r="H4" s="277"/>
+      <c r="I4" s="370" t="s">
+        <v>216</v>
+      </c>
+      <c r="J4" s="370"/>
+    </row>
+    <row r="5" spans="2:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D5" s="244" t="s">
+        <v>225</v>
+      </c>
+      <c r="E5" s="245" t="s">
+        <v>226</v>
+      </c>
+      <c r="F5" s="278"/>
+      <c r="G5" s="278"/>
+      <c r="H5" s="278"/>
+      <c r="I5" s="238" t="s">
+        <v>225</v>
+      </c>
+      <c r="J5" s="239" t="s">
+        <v>226</v>
+      </c>
+      <c r="K5" s="278"/>
+    </row>
+    <row r="6" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="372" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="240" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="234">
+        <v>0.3276</v>
+      </c>
+      <c r="E6" s="235">
+        <v>0.18959999999999999</v>
+      </c>
+      <c r="G6" s="369" t="s">
+        <v>219</v>
+      </c>
+      <c r="H6" s="242" t="s">
+        <v>218</v>
+      </c>
+      <c r="I6" s="234">
+        <v>0.31030000000000002</v>
+      </c>
+      <c r="J6" s="235">
+        <v>0.22570000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="372"/>
+      <c r="C7" s="241" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" s="236">
+        <v>0.2586</v>
+      </c>
+      <c r="E7" s="237">
+        <v>0.10340000000000001</v>
+      </c>
+      <c r="G7" s="369"/>
+      <c r="H7" s="243" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="236">
+        <v>0.27589999999999998</v>
+      </c>
+      <c r="J7" s="237">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="281"/>
+      <c r="D8" s="288"/>
+      <c r="E8" s="288"/>
+    </row>
+    <row r="9" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="2:14" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="366" t="s">
+        <v>224</v>
+      </c>
+      <c r="D10" s="366"/>
+      <c r="E10" s="366"/>
+      <c r="H10" s="366" t="s">
+        <v>221</v>
+      </c>
+      <c r="I10" s="366"/>
+      <c r="J10" s="366"/>
+    </row>
+    <row r="11" spans="2:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="289"/>
+      <c r="C11" s="289"/>
+      <c r="D11" s="289"/>
+      <c r="E11" s="289"/>
+      <c r="G11" s="277"/>
+      <c r="H11" s="277"/>
+      <c r="I11" s="277"/>
+      <c r="J11" s="277"/>
+    </row>
+    <row r="12" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="289"/>
+      <c r="C12" s="289"/>
+      <c r="D12" s="371" t="s">
+        <v>217</v>
+      </c>
+      <c r="E12" s="371"/>
+      <c r="G12" s="277"/>
+      <c r="H12" s="277"/>
+      <c r="I12" s="367" t="s">
+        <v>217</v>
+      </c>
+      <c r="J12" s="367"/>
+    </row>
+    <row r="13" spans="2:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="278"/>
+      <c r="D13" s="279" t="s">
+        <v>214</v>
+      </c>
+      <c r="E13" s="280" t="s">
+        <v>215</v>
+      </c>
+      <c r="G13" s="278"/>
+      <c r="H13" s="278"/>
+      <c r="I13" s="279" t="s">
+        <v>214</v>
+      </c>
+      <c r="J13" s="280" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="372" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="282" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" s="290">
+        <v>0.57889999999999997</v>
+      </c>
+      <c r="E14" s="283">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="G14" s="368" t="s">
+        <v>219</v>
+      </c>
+      <c r="H14" s="284" t="s">
+        <v>222</v>
+      </c>
+      <c r="J14" s="283">
+        <v>0.64710000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="372"/>
+      <c r="C15" s="285" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" s="286">
+        <v>0.4</v>
+      </c>
+      <c r="E15" s="286">
+        <v>0.6</v>
+      </c>
+      <c r="G15" s="368"/>
+      <c r="H15" s="287" t="s">
+        <v>223</v>
+      </c>
+      <c r="J15" s="286">
+        <v>0.85289999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="275"/>
+    </row>
+    <row r="17" s="275" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I4:J4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>